--- a/data/17-11-2025-HARINAVI_B2_connections.xlsx
+++ b/data/17-11-2025-HARINAVI_B2_connections.xlsx
@@ -1,818 +1,1025 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="HARINAVI B2_connections" state="visible" r:id="rId4"/>
+    <sheet name="HARINAVI B2_connections" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="261">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>System Id</t>
-  </si>
-  <si>
-    <t>System Name</t>
-  </si>
-  <si>
-    <t>System Type Name</t>
-  </si>
-  <si>
-    <t>Sn Name</t>
-  </si>
-  <si>
-    <t>En Name</t>
-  </si>
-  <si>
-    <t>Sn Node Name</t>
-  </si>
-  <si>
-    <t>En Node Name</t>
-  </si>
-  <si>
-    <t>Sn Node Id</t>
-  </si>
-  <si>
-    <t>En Node Id</t>
-  </si>
-  <si>
-    <t>Media Type Id</t>
-  </si>
-  <si>
-    <t>Media Type Name</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Sn Id</t>
-  </si>
-  <si>
-    <t>En Id</t>
-  </si>
-  <si>
-    <t>Commissioned On</t>
-  </si>
-  <si>
-    <t>Connected System Name</t>
-  </si>
-  <si>
-    <t>Connected System Type Name</t>
-  </si>
-  <si>
-    <t>Created At</t>
-  </si>
-  <si>
-    <t>En Interface</t>
-  </si>
-  <si>
-    <t>En Ip</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Sdh A Customer</t>
-  </si>
-  <si>
-    <t>Sdh A Slot</t>
-  </si>
-  <si>
-    <t>Sdh B Customer</t>
-  </si>
-  <si>
-    <t>Sdh B Slot</t>
-  </si>
-  <si>
-    <t>Sdh Carrier</t>
-  </si>
-  <si>
-    <t>Sdh Stm No</t>
-  </si>
-  <si>
-    <t>Sn Interface</t>
-  </si>
-  <si>
-    <t>Sn Ip</t>
-  </si>
-  <si>
-    <t>Updated At</t>
-  </si>
-  <si>
-    <t>Vlan</t>
-  </si>
-  <si>
-    <t>Fiber In</t>
-  </si>
-  <si>
-    <t>Fiber Out</t>
-  </si>
-  <si>
-    <t>Working Fiber In</t>
-  </si>
-  <si>
-    <t>Working Fiber Out</t>
-  </si>
-  <si>
-    <t>Protection Fiber In</t>
-  </si>
-  <si>
-    <t>Protection Fiber Out</t>
-  </si>
-  <si>
-    <t>Working Fiber In Id</t>
-  </si>
-  <si>
-    <t>Working Fiber Out Id</t>
-  </si>
-  <si>
-    <t>Protection Fiber In Id</t>
-  </si>
-  <si>
-    <t>Protection Fiber Out Id</t>
-  </si>
-  <si>
-    <t>Bandwidth Allocated</t>
-  </si>
-  <si>
-    <t>System Working Interface</t>
-  </si>
-  <si>
-    <t>System Protection Interface</t>
-  </si>
-  <si>
-    <t>Connected Link Type Name</t>
-  </si>
-  <si>
-    <t>f648748a-c1fb-4fe9-8928-1b7fddab2f50</t>
-  </si>
-  <si>
-    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
-  </si>
-  <si>
-    <t>HARINAVI B2</t>
-  </si>
-  <si>
-    <t>Converged Packet Aggregation Node</t>
-  </si>
-  <si>
-    <t>0570b1bf-ddf8-4a7a-b125-2e4276120f08</t>
-  </si>
-  <si>
-    <t>Copper pair</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>957f8b54-653a-461f-99b3-ea1d711d48c5</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>78cfcb71-8ab1-49d5-a6d1-0ddab9c7d911</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>2bc69e70-1da3-4a2f-ba86-1a25883036e7</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>eb7c3808-c1b0-4107-afe9-daa73db0f4d0</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>a615c541-ac21-4b5f-8b6a-5f9359281004</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>c6be3933-8638-465e-8b0e-55377f0ce304</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>445c1618-8c52-49f9-8570-03ac69304e2b</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>67616707-4a3f-4dc8-b896-0c924461a076</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>c8e2dc31-6b8a-435c-b33f-f4220a6543a6</t>
-  </si>
-  <si>
-    <t>becddb74-f524-4679-95fe-6b7208d0a68c</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>e9b0b45e-eff6-4b40-9043-bcb68c98f2ac</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>cb0ddbbf-b602-4fce-a012-c6115fd03a62</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>57ba44ed-061e-45c8-adb4-6ac150eb885e</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>24fdc2df-8d93-465c-94bb-5bcd1baffbcc</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>076f6d1b-92ae-4776-9030-5c52adbd8289</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>31041f0d-3710-462d-af23-d7525f8bc0fa</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>cf42b419-14a8-4775-9cb5-41e67f46d4a5</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>fdc960fb-ad1d-4ad0-9fc8-02437fc89d30</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>597b114d-8055-49bd-8cbd-cef26a1b3298</t>
-  </si>
-  <si>
-    <t>a040955c-e302-4e2a-b817-c40b69dad886</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>e61b6195-2fc8-49bd-8d28-251f1408bb07</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>272696d8-fd12-4227-8cae-b411b63acbda</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>6ce28804-e424-4650-ad46-e93505715ea7</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>cad0f19f-972c-4451-b4aa-d9a819062a98</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>94308071-8a17-4ae3-bd41-6813929e8e27</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>528fcb40-998d-4012-9fce-0046c2d5f9ed</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3d0b0be1-a819-4858-8f45-4d3c1af61699</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>b53a6a23-5a3c-4d49-ba33-4174c1c9cc5b</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2a85748d-1067-48e7-82eb-c0121fd5d004</t>
-  </si>
-  <si>
-    <t>fba8c180-00cb-4396-9405-4bc5e6755f8f</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>bf5a1e36-d04e-4ac6-83c8-9cd4724ebfdc</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>47ead1fe-08f1-4d2b-96b6-77dc2f349a54</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>03773bf9-df5a-4ce3-9be2-2520753cc56a</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>832849d8-b2f6-4874-adde-720126f884c1</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>06d92414-ceb3-4360-9d14-6adb1aaca253</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>4bd111a6-d245-4a99-aef8-da127fef030a</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>4612ebee-71a5-4c72-ad29-b7b708fb5556</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>72b4b817-dcbf-4549-947d-7c112b4e3052</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>7dc47b7a-50d4-4d73-93c5-19f4ba10c25a</t>
-  </si>
-  <si>
-    <t>1fc76688-5d9b-4a5a-aabf-54dfa9f2e87a</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>e0151656-ecb8-4246-8d1f-01ce0a8a8ad2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>fd05d407-a32c-4041-9649-86aff6cabd42</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>a14d753b-1381-49dc-8c2f-54a00190e37b</t>
-  </si>
-  <si>
-    <t>07e29788-b2cc-47ba-9d86-915358625605</t>
-  </si>
-  <si>
-    <t>1e59ba4b-942b-4d76-8b03-2e779a41aeb1</t>
-  </si>
-  <si>
-    <t>3a482418-195c-4854-8260-ec4f49ac9e7c</t>
-  </si>
-  <si>
-    <t>584102f5-91dd-4401-b405-5c52a223f325</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>c97ab19e-bc74-48ba-952a-970dd9f323de</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>18d4b545-8831-4fec-bfb3-e99592199480</t>
-  </si>
-  <si>
-    <t>1e8ab2e6-cc75-4bd8-8fc7-948feb5c207a</t>
-  </si>
-  <si>
-    <t>5a5b8c55-8e34-4038-9804-a2decf9bc3bb</t>
-  </si>
-  <si>
-    <t>4M</t>
-  </si>
-  <si>
-    <t>3fb5aa93-5891-437f-8a33-0b73a105e184</t>
-  </si>
-  <si>
-    <t>e9eebdee-7ce0-4bf3-abf2-902f221e96fa</t>
-  </si>
-  <si>
-    <t>7fc7c2e3-5952-491c-99b8-4c2e1c81bd39</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>9dbb8383-8b46-42e4-82e0-8d52969177fa</t>
-  </si>
-  <si>
-    <t>e916decf-c6ea-4139-90cc-b4eb3fc7ea30</t>
-  </si>
-  <si>
-    <t>3d23e42b-e7ff-4ed9-a93e-130b6cdcac3d</t>
-  </si>
-  <si>
-    <t>a508c21d-6f94-4f8c-9fa9-64859cfb15b2</t>
-  </si>
-  <si>
-    <t>07f73103-f686-44d0-afff-a4f3aa90e710</t>
-  </si>
-  <si>
-    <t>e124835a-386c-491a-b099-83772944d0e7</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>541a8fe2-e26a-4da1-8eb7-f698ff874a0c</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>cb9fabce-40c0-4cef-b09b-cf3e3247471c</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4f35c768-5126-476d-949c-72e7e7074a60</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>c5780147-dc4a-4063-b748-271013262681</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>62311359-f672-49b1-a427-66bc7b030640</t>
-  </si>
-  <si>
-    <t>1b2b765f-49e7-4a05-9a78-67e7b815a615</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>614b0965-30e7-4009-ab90-f88834a59e52</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>9d0ebf8b-a23f-44dd-8e8a-f7135bb51b73</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>19caf925-8c0d-4c5d-b647-c5544572d8fc</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>44c82c63-1420-42d8-a4f4-d417a0ff9014</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>aa6f6b81-246a-4099-9ccf-24792a7d1ff3</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>d8641f0a-e43d-46d3-9634-612df494b5e8</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>28679ab3-feac-4ac7-9114-222ef227bc74</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>59487bc0-2edb-4524-9df6-4c980d890f16</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3d80b3c0-9735-4875-8bcf-2bb474da2767</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>d7f55003-cf4c-4977-a88e-8c42fb2ff80e</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>eba0f6dc-788f-4e5d-bd84-24c2782b9941</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>e7df972b-ce59-4723-af16-a0445e9f2b1a</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>24c543ad-4efc-424c-a135-daecb11d8006</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4bedc7da-570e-4e1f-87a9-0e078d344bee</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>b7b52fe9-1174-4a63-950a-cdc5aeb9239d</t>
-  </si>
-  <si>
-    <t>eec9eece-ef13-445f-b55d-bd27b2b28467</t>
-  </si>
-  <si>
-    <t>8f878ecd-72c7-4d4e-a55d-8aeff7b9bb07</t>
-  </si>
-  <si>
-    <t>943e847c-d982-4e82-a587-35025ffd0335</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>0d146e56-4ce5-4d13-bb07-c85a098fb3fe</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>745b29dd-c700-4819-9ac9-bbe740382292</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>f9b124c4-5c7a-4fe2-87c5-8d2310117913</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>110ae493-69b2-424a-aea4-f333ba5cbe9b</t>
-  </si>
-  <si>
-    <t>a1443a73-82f8-467f-a232-97e6735af3db</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>fe1f91d3-bb4e-49a3-a978-53084f2608fc</t>
-  </si>
-  <si>
-    <t>5.11</t>
-  </si>
-  <si>
-    <t>44d87486-1f60-4aa3-b011-24d5f1f80c78</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>3d32cfa3-9846-434e-a6d7-7d3df28b952d</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>4778208f-7444-43cb-98ee-5442c8d07c83</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>717bd6d7-098c-4f26-92c2-43397f05d7c9</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>4c20be3e-0f72-4816-b181-ab156f3241be</t>
-  </si>
-  <si>
-    <t>f3995eb8-5fe9-463f-aabd-034990f0f114</t>
-  </si>
-  <si>
-    <t>6137cb41-7417-4cea-b49d-b2f9a757fb41</t>
-  </si>
-  <si>
-    <t>b62e2338-f69a-4405-983d-f2b26546fc2e</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>f120a5f3-b03a-4332-aae6-7f7d4b0a2eec</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>405d6548-6317-48dd-9cc3-a40a1490556d</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50463500-a1cc-4c53-875c-2f1c30cdf083</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>f1d6eac3-cafa-478b-8760-32cfc05276aa</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>d8fd945d-ada6-4526-821b-ab317250219c</t>
-  </si>
-  <si>
-    <t>2c48a853-7f3f-42e0-a497-a0657f9e6c8a</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>860e0011-a64f-4f7e-973c-4cb941dcc6fd</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>4a9a2763-80cd-442a-9245-0bfce58b2b28</t>
-  </si>
-  <si>
-    <t>NMS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="318">
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn Node Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Node Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn Node Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Node Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Type Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commissioned On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected System Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected System Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdh A Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdh A Slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdh B Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdh B Slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdh Carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sdh Stm No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn Ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Fiber In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Fiber Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection Fiber In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection Fiber Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Fiber In Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Fiber Out Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection Fiber In Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection Fiber Out Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandwidth Allocated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Working Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Protection Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected Link Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f648748a-c1fb-4fe9-8928-1b7fddab2f50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6e5cca5f-9516-4264-811b-309d17a29b6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converged Packet Aggregation Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0570b1bf-ddf8-4a7a-b125-2e4276120f08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">957f8b54-653a-461f-99b3-ea1d711d48c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78cfcb71-8ab1-49d5-a6d1-0ddab9c7d911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bc69e70-1da3-4a2f-ba86-1a25883036e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb7c3808-c1b0-4107-afe9-daa73db0f4d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a615c541-ac21-4b5f-8b6a-5f9359281004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c6be3933-8638-465e-8b0e-55377f0ce304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445c1618-8c52-49f9-8570-03ac69304e2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67616707-4a3f-4dc8-b896-0c924461a076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c8e2dc31-6b8a-435c-b33f-f4220a6543a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">becddb74-f524-4679-95fe-6b7208d0a68c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e9b0b45e-eff6-4b40-9043-bcb68c98f2ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb0ddbbf-b602-4fce-a012-c6115fd03a62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57ba44ed-061e-45c8-adb4-6ac150eb885e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24fdc2df-8d93-465c-94bb-5bcd1baffbcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">076f6d1b-92ae-4776-9030-5c52adbd8289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31041f0d-3710-462d-af23-d7525f8bc0fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cf42b419-14a8-4775-9cb5-41e67f46d4a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdc960fb-ad1d-4ad0-9fc8-02437fc89d30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">597b114d-8055-49bd-8cbd-cef26a1b3298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a040955c-e302-4e2a-b817-c40b69dad886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e61b6195-2fc8-49bd-8d28-251f1408bb07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272696d8-fd12-4227-8cae-b411b63acbda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ce28804-e424-4650-ad46-e93505715ea7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cad0f19f-972c-4451-b4aa-d9a819062a98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSION VMUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94308071-8a17-4ae3-bd41-6813929e8e27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528fcb40-998d-4012-9fce-0046c2d5f9ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADAVPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d0b0be1-a819-4858-8f45-4d3c1af61699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b53a6a23-5a3c-4d49-ba33-4174c1c9cc5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a85748d-1067-48e7-82eb-c0121fd5d004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fba8c180-00cb-4396-9405-4bc5e6755f8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf5a1e36-d04e-4ac6-83c8-9cd4724ebfdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47ead1fe-08f1-4d2b-96b6-77dc2f349a54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03773bf9-df5a-4ce3-9be2-2520753cc56a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">832849d8-b2f6-4874-adde-720126f884c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALIGHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06d92414-ceb3-4360-9d14-6adb1aaca253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4bd111a6-d245-4a99-aef8-da127fef030a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4612ebee-71a5-4c72-ad29-b7b708fb5556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72b4b817-dcbf-4549-947d-7c112b4e3052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7dc47b7a-50d4-4d73-93c5-19f4ba10c25a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1fc76688-5d9b-4a5a-aabf-54dfa9f2e87a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBINDAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0151656-ecb8-4246-8d1f-01ce0a8a8ad2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR RLY XING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd05d407-a32c-4041-9649-86aff6cabd42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR ADSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a14d753b-1381-49dc-8c2f-54a00190e37b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEST BENGAL INDUSTRY DEVELOPEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07e29788-b2cc-47ba-9d86-915358625605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IG BORDER (BARUIPUR POLICE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e59ba4b-942b-4d76-8b03-2e779a41aeb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR BLRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a482418-195c-4854-8260-ec4f49ac9e7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHOSPARA DARIR ROAD BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">584102f5-91dd-4401-b405-5c52a223f325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHOSPARA DARIR ROAD BTS MGMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c97ab19e-bc74-48ba-952a-970dd9f323de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI SUBHASGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18d4b545-8831-4fec-bfb3-e99592199480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR POLYTECHNIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e8ab2e6-cc75-4bd8-8fc7-948feb5c207a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDHAN SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a5b8c55-8e34-4038-9804-a2decf9bc3bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTION COMMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3fb5aa93-5891-437f-8a33-0b73a105e184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAMOND BEVERAGE BEHALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e9eebdee-7ce0-4bf3-abf2-902f221e96fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI RAJPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7fc7c2e3-5952-491c-99b8-4c2e1c81bd39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S FIBER BROADBAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9dbb8383-8b46-42e4-82e0-8d52969177fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIFI SARBATRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e916decf-c6ea-4139-90cc-b4eb3fc7ea30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLT BNG NASKAR LALTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d23e42b-e7ff-4ed9-a93e-130b6cdcac3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLT BACKHAUL SITAKUNDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a508c21d-6f94-4f8c-9fa9-64859cfb15b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S USHA CABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07f73103-f686-44d0-afff-a4f3aa90e710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR LAN SWITCH (OLT BACKHAUL BARUIPUR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e124835a-386c-491a-b099-83772944d0e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541a8fe2-e26a-4da1-8eb7-f698ff874a0c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR SARKARPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb9fabce-40c0-4cef-b09b-cf3e3247471c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4f35c768-5126-476d-949c-72e7e7074a60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5780147-dc4a-4063-b748-271013262681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62311359-f672-49b1-a427-66bc7b030640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b2b765f-49e7-4a05-9a78-67e7b815a615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614b0965-30e7-4009-ab90-f88834a59e52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9d0ebf8b-a23f-44dd-8e8a-f7135bb51b73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KODALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19caf925-8c0d-4c5d-b647-c5544572d8fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHALIMAR CHEMICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44c82c63-1420-42d8-a4f4-d417a0ff9014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN CHOWHATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa6f6b81-246a-4099-9ccf-24792a7d1ff3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNGPAN(Port-5.5) for BARUIPUR BBNL OLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8641f0a-e43d-46d3-9634-612df494b5e8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S VISION 2000 PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28679ab3-feac-4ac7-9114-222ef227bc74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59487bc0-2edb-4524-9df6-4c980d890f16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d80b3c0-9735-4875-8bcf-2bb474da2767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEN NIB TB (HNV CSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7f55003-cf4c-4977-a88e-8c42fb2ff80e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eba0f6dc-788f-4e5d-bd84-24c2782b9941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e7df972b-ce59-4723-af16-a0445e9f2b1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAHMAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24c543ad-4efc-424c-a135-daecb11d8006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4bedc7da-570e-4e1f-87a9-0e078d344bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMG+SCN COMMUNICATION+CHANNEL NINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7b52fe9-1174-4a63-950a-cdc5aeb9239d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eec9eece-ef13-445f-b55d-bd27b2b28467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S LALTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8f878ecd-72c7-4d4e-a55d-8aeff7b9bb07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">943e847c-d982-4e82-a587-35025ffd0335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHINAGAR GPON OLT OLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0d146e56-4ce5-4d13-bb07-c85a098fb3fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRDO BARUIPUR OLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">745b29dd-c700-4819-9ac9-bbe740382292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI LOG IN ALTERNATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9b124c4-5c7a-4fe2-87c5-8d2310117913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR SOUTH/SUBHASGRAM PETUA  4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110ae493-69b2-424a-aea4-f333ba5cbe9b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR III 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1443a73-82f8-467f-a232-97e6735af3db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM 4G 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe1f91d3-bb4e-49a3-a978-53084f2608fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALLICKPUR SITALA MANDIR 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44d87486-1f60-4aa3-b011-24d5f1f80c78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM PANCHGHARA 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d32cfa3-9846-434e-a6d7-7d3df28b952d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHOSHPARA DARIR ROAD 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4778208f-7444-43cb-98ee-5442c8d07c83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">717bd6d7-098c-4f26-92c2-43397f05d7c9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c20be3e-0f72-4816-b181-ab156f3241be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP NAGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3995eb8-5fe9-463f-aabd-034990f0f114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S SUBHRO HOBBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6137cb41-7417-4cea-b49d-b2f9a757fb41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S ADITI M/S KAUSTAK CABLE ENTERPRISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b62e2338-f69a-4405-983d-f2b26546fc2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f120a5f3-b03a-4332-aae6-7f7d4b0a2eec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWANTIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405d6548-6317-48dd-9cc3-a40a1490556d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVANTIPUR LOGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50463500-a1cc-4c53-875c-2f1c30cdf083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1d6eac3-cafa-478b-8760-32cfc05276aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8fd945d-ada6-4526-821b-ab317250219c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c48a853-7f3f-42e0-a497-a0657f9e6c8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860e0011-a64f-4f7e-973c-4cb941dcc6fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN LOGIN CIR-BRS-TB-KGT-BHT AGGREGATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a9a2763-80cd-442a-9245-0bfce58b2b28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN NMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -825,39 +1032,40 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -865,100 +1073,196 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF8F9FA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -966,483 +1270,337 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AV108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="N42" activeCellId="0" sqref="N42:N108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="6" width="10" customWidth="1"/>
-    <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="28" customWidth="1"/>
-    <col min="21" max="21" width="30" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="10" customWidth="1"/>
-    <col min="33" max="33" width="30" customWidth="1"/>
-    <col min="34" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="11" customWidth="1"/>
-    <col min="37" max="37" width="18" customWidth="1"/>
-    <col min="38" max="38" width="19" customWidth="1"/>
-    <col min="39" max="39" width="21" customWidth="1"/>
-    <col min="40" max="40" width="22" customWidth="1"/>
-    <col min="41" max="41" width="21" customWidth="1"/>
-    <col min="42" max="42" width="22" customWidth="1"/>
-    <col min="43" max="43" width="24" customWidth="1"/>
-    <col min="44" max="44" width="25" customWidth="1"/>
-    <col min="45" max="45" width="21" customWidth="1"/>
-    <col min="46" max="46" width="26" customWidth="1"/>
-    <col min="47" max="47" width="29" customWidth="1"/>
-    <col min="48" max="48" width="26" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="1.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="2.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="1.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="1.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="1.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="0" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="1.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="1.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="1.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="1.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="2.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="1.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="1.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="3.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="1.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="0" width="1.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1477,8 +1635,8 @@
       <c r="R2" s="3"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="3">
-        <v>45978.672110381944</v>
+      <c r="U2" s="3" t="n">
+        <v>45978.6721103819</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1491,8 +1649,8 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="3">
-        <v>45978.672110381944</v>
+      <c r="AG2" s="3" t="n">
+        <v>45978.6721103819</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1514,7 +1672,7 @@
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -1549,8 +1707,8 @@
       <c r="R3" s="7"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="7">
-        <v>45978.67211289352</v>
+      <c r="U3" s="7" t="n">
+        <v>45978.6721128935</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
@@ -1563,8 +1721,8 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
-      <c r="AG3" s="7">
-        <v>45978.67211289352</v>
+      <c r="AG3" s="7" t="n">
+        <v>45978.6721128935</v>
       </c>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
@@ -1586,7 +1744,7 @@
       <c r="AU3" s="6"/>
       <c r="AV3" s="6"/>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1621,8 +1779,8 @@
       <c r="R4" s="3"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="3">
-        <v>45978.67211532407</v>
+      <c r="U4" s="3" t="n">
+        <v>45978.6721153241</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1635,8 +1793,8 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="3">
-        <v>45978.67211532407</v>
+      <c r="AG4" s="3" t="n">
+        <v>45978.6721153241</v>
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1658,7 +1816,7 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -1693,8 +1851,8 @@
       <c r="R5" s="7"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="7">
-        <v>45978.67211690972</v>
+      <c r="U5" s="7" t="n">
+        <v>45978.6721169097</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -1707,8 +1865,8 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
-      <c r="AG5" s="7">
-        <v>45978.67211690972</v>
+      <c r="AG5" s="7" t="n">
+        <v>45978.6721169097</v>
       </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
@@ -1730,7 +1888,7 @@
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -1765,8 +1923,8 @@
       <c r="R6" s="3"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="3">
-        <v>45978.67211826389</v>
+      <c r="U6" s="3" t="n">
+        <v>45978.6721182639</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1779,8 +1937,8 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="3">
-        <v>45978.67211826389</v>
+      <c r="AG6" s="3" t="n">
+        <v>45978.6721182639</v>
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -1802,7 +1960,7 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
     </row>
-    <row r="7" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -1837,7 +1995,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="7">
+      <c r="U7" s="7" t="n">
         <v>45978.6721196875</v>
       </c>
       <c r="V7" s="6"/>
@@ -1851,7 +2009,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
-      <c r="AG7" s="7">
+      <c r="AG7" s="7" t="n">
         <v>45978.6721196875</v>
       </c>
       <c r="AH7" s="6"/>
@@ -1874,7 +2032,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="6"/>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -1909,8 +2067,8 @@
       <c r="R8" s="3"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="3">
-        <v>45978.67212101852</v>
+      <c r="U8" s="3" t="n">
+        <v>45978.6721210185</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1923,8 +2081,8 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="3">
-        <v>45978.67212101852</v>
+      <c r="AG8" s="3" t="n">
+        <v>45978.6721210185</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
@@ -1946,7 +2104,7 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -1981,8 +2139,8 @@
       <c r="R9" s="7"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="7">
-        <v>45978.67212217592</v>
+      <c r="U9" s="7" t="n">
+        <v>45978.6721221759</v>
       </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -1995,8 +2153,8 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
-      <c r="AG9" s="7">
-        <v>45978.67212217592</v>
+      <c r="AG9" s="7" t="n">
+        <v>45978.6721221759</v>
       </c>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
@@ -2018,7 +2176,7 @@
       <c r="AU9" s="6"/>
       <c r="AV9" s="6"/>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -2053,8 +2211,8 @@
       <c r="R10" s="3"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="3">
-        <v>45978.67212363426</v>
+      <c r="U10" s="3" t="n">
+        <v>45978.6721236343</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2067,8 +2225,8 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="3">
-        <v>45978.67212363426</v>
+      <c r="AG10" s="3" t="n">
+        <v>45978.6721236343</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
@@ -2090,7 +2248,7 @@
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2125,8 +2283,8 @@
       <c r="R11" s="7"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="7">
-        <v>45978.67212491899</v>
+      <c r="U11" s="7" t="n">
+        <v>45978.672124919</v>
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -2139,8 +2297,8 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
-      <c r="AG11" s="7">
-        <v>45978.67212491899</v>
+      <c r="AG11" s="7" t="n">
+        <v>45978.672124919</v>
       </c>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
@@ -2162,7 +2320,7 @@
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -2197,8 +2355,8 @@
       <c r="R12" s="3"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="3">
-        <v>45978.67212631945</v>
+      <c r="U12" s="3" t="n">
+        <v>45978.6721263195</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -2211,8 +2369,8 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="3">
-        <v>45978.67212631945</v>
+      <c r="AG12" s="3" t="n">
+        <v>45978.6721263195</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
@@ -2234,7 +2392,7 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -2269,8 +2427,8 @@
       <c r="R13" s="7"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="7">
-        <v>45978.67212754629</v>
+      <c r="U13" s="7" t="n">
+        <v>45978.6721275463</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -2283,8 +2441,8 @@
       <c r="AD13" s="8"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
-      <c r="AG13" s="7">
-        <v>45978.67212754629</v>
+      <c r="AG13" s="7" t="n">
+        <v>45978.6721275463</v>
       </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
@@ -2306,7 +2464,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="6"/>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -2341,8 +2499,8 @@
       <c r="R14" s="3"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="3">
-        <v>45978.67212869213</v>
+      <c r="U14" s="3" t="n">
+        <v>45978.6721286921</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -2355,8 +2513,8 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="3">
-        <v>45978.67212869213</v>
+      <c r="AG14" s="3" t="n">
+        <v>45978.6721286921</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
@@ -2378,7 +2536,7 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -2413,8 +2571,8 @@
       <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="7">
-        <v>45978.67212991898</v>
+      <c r="U15" s="7" t="n">
+        <v>45978.672129919</v>
       </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -2427,8 +2585,8 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
-      <c r="AG15" s="7">
-        <v>45978.67212991898</v>
+      <c r="AG15" s="7" t="n">
+        <v>45978.672129919</v>
       </c>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
@@ -2450,7 +2608,7 @@
       <c r="AU15" s="6"/>
       <c r="AV15" s="6"/>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -2485,8 +2643,8 @@
       <c r="R16" s="3"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="3">
-        <v>45978.67213131944</v>
+      <c r="U16" s="3" t="n">
+        <v>45978.6721313194</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -2499,8 +2657,8 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="3">
-        <v>45978.67213131944</v>
+      <c r="AG16" s="3" t="n">
+        <v>45978.6721313194</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
@@ -2520,7 +2678,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -2555,8 +2713,8 @@
       <c r="R17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="7">
-        <v>45978.67213248843</v>
+      <c r="U17" s="7" t="n">
+        <v>45978.6721324884</v>
       </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2569,8 +2727,8 @@
       <c r="AD17" s="8"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
-      <c r="AG17" s="7">
-        <v>45978.67213248843</v>
+      <c r="AG17" s="7" t="n">
+        <v>45978.6721324884</v>
       </c>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
@@ -2592,7 +2750,7 @@
       <c r="AU17" s="6"/>
       <c r="AV17" s="6"/>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -2627,8 +2785,8 @@
       <c r="R18" s="3"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="3">
-        <v>45978.67213373842</v>
+      <c r="U18" s="3" t="n">
+        <v>45978.6721337384</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -2641,8 +2799,8 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="3">
-        <v>45978.67213373842</v>
+      <c r="AG18" s="3" t="n">
+        <v>45978.6721337384</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -2664,7 +2822,7 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -2699,8 +2857,8 @@
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="7">
-        <v>45978.67213502315</v>
+      <c r="U19" s="7" t="n">
+        <v>45978.6721350232</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2713,8 +2871,8 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
-      <c r="AG19" s="7">
-        <v>45978.67213502315</v>
+      <c r="AG19" s="7" t="n">
+        <v>45978.6721350232</v>
       </c>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
@@ -2736,7 +2894,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="6"/>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -2771,7 +2929,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="n">
         <v>45978.6721362963</v>
       </c>
       <c r="V20" s="2"/>
@@ -2785,7 +2943,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="3">
+      <c r="AG20" s="3" t="n">
         <v>45978.6721362963</v>
       </c>
       <c r="AH20" s="2"/>
@@ -2808,7 +2966,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
     </row>
-    <row r="21" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
@@ -2843,8 +3001,8 @@
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="7">
-        <v>45978.672137430556</v>
+      <c r="U21" s="7" t="n">
+        <v>45978.6721374306</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2857,8 +3015,8 @@
       <c r="AD21" s="8"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
-      <c r="AG21" s="7">
-        <v>45978.672137430556</v>
+      <c r="AG21" s="7" t="n">
+        <v>45978.6721374306</v>
       </c>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
@@ -2880,7 +3038,7 @@
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -2906,7 +3064,6 @@
         <v>53</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2915,8 +3072,8 @@
       <c r="R22" s="3"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="3">
-        <v>45978.67213878472</v>
+      <c r="U22" s="3" t="n">
+        <v>45978.6721387847</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -2929,8 +3086,8 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="3">
-        <v>45978.67213878472</v>
+      <c r="AG22" s="3" t="n">
+        <v>45978.6721387847</v>
       </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
@@ -2952,7 +3109,7 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2978,7 +3135,6 @@
         <v>53</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
       <c r="O23" s="6" t="s">
         <v>54</v>
       </c>
@@ -2987,8 +3143,8 @@
       <c r="R23" s="7"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="7">
-        <v>45978.67214002315</v>
+      <c r="U23" s="7" t="n">
+        <v>45978.6721400232</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -3001,8 +3157,8 @@
       <c r="AD23" s="8"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
-      <c r="AG23" s="7">
-        <v>45978.67214002315</v>
+      <c r="AG23" s="7" t="n">
+        <v>45978.6721400232</v>
       </c>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
@@ -3024,7 +3180,7 @@
       <c r="AU23" s="6"/>
       <c r="AV23" s="6"/>
     </row>
-    <row r="24" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -3050,7 +3206,6 @@
         <v>53</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
         <v>54</v>
       </c>
@@ -3059,8 +3214,8 @@
       <c r="R24" s="3"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="3">
-        <v>45978.672141296294</v>
+      <c r="U24" s="3" t="n">
+        <v>45978.6721412963</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -3073,8 +3228,8 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="3">
-        <v>45978.672141296294</v>
+      <c r="AG24" s="3" t="n">
+        <v>45978.6721412963</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
@@ -3096,7 +3251,7 @@
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
     </row>
-    <row r="25" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>103</v>
       </c>
@@ -3122,7 +3277,6 @@
         <v>53</v>
       </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
       <c r="O25" s="6" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3285,8 @@
       <c r="R25" s="7"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="7">
-        <v>45978.67214246528</v>
+      <c r="U25" s="7" t="n">
+        <v>45978.6721424653</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -3145,8 +3299,8 @@
       <c r="AD25" s="8"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
-      <c r="AG25" s="7">
-        <v>45978.67214246528</v>
+      <c r="AG25" s="7" t="n">
+        <v>45978.6721424653</v>
       </c>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
@@ -3168,7 +3322,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
     </row>
-    <row r="26" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -3194,7 +3348,9 @@
         <v>53</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>54</v>
       </c>
@@ -3203,7 +3359,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="n">
         <v>45978.6721437963</v>
       </c>
       <c r="V26" s="2"/>
@@ -3217,7 +3373,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="3">
+      <c r="AG26" s="3" t="n">
         <v>45978.6721437963</v>
       </c>
       <c r="AH26" s="2"/>
@@ -3235,14 +3391,14 @@
         <v>93</v>
       </c>
       <c r="AT26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
     </row>
-    <row r="27" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>49</v>
@@ -3266,7 +3422,9 @@
         <v>53</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="N27" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="O27" s="6" t="s">
         <v>54</v>
       </c>
@@ -3275,8 +3433,8 @@
       <c r="R27" s="7"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="7">
-        <v>45978.672145046294</v>
+      <c r="U27" s="7" t="n">
+        <v>45978.6721450463</v>
       </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -3289,8 +3447,8 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
-      <c r="AG27" s="7">
-        <v>45978.672145046294</v>
+      <c r="AG27" s="7" t="n">
+        <v>45978.6721450463</v>
       </c>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
@@ -3304,17 +3462,17 @@
       <c r="AQ27" s="6"/>
       <c r="AR27" s="6"/>
       <c r="AS27" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AT27" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
     </row>
-    <row r="28" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>49</v>
@@ -3338,7 +3496,9 @@
         <v>53</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="O28" s="2" t="s">
         <v>54</v>
       </c>
@@ -3347,8 +3507,8 @@
       <c r="R28" s="3"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="3">
-        <v>45978.672146400466</v>
+      <c r="U28" s="3" t="n">
+        <v>45978.6721464005</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -3361,8 +3521,8 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="3">
-        <v>45978.672146400466</v>
+      <c r="AG28" s="3" t="n">
+        <v>45978.6721464005</v>
       </c>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
@@ -3376,17 +3536,17 @@
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>49</v>
@@ -3410,7 +3570,9 @@
         <v>53</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="N29" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="O29" s="6" t="s">
         <v>54</v>
       </c>
@@ -3419,8 +3581,8 @@
       <c r="R29" s="7"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="7">
-        <v>45978.67214756944</v>
+      <c r="U29" s="7" t="n">
+        <v>45978.6721475694</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -3433,8 +3595,8 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
-      <c r="AG29" s="7">
-        <v>45978.67214756944</v>
+      <c r="AG29" s="7" t="n">
+        <v>45978.6721475694</v>
       </c>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
@@ -3448,17 +3610,17 @@
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6"/>
       <c r="AS29" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AT29" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>49</v>
@@ -3482,7 +3644,9 @@
         <v>53</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="O30" s="2" t="s">
         <v>54</v>
       </c>
@@ -3491,8 +3655,8 @@
       <c r="R30" s="3"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="3">
-        <v>45978.67214877315</v>
+      <c r="U30" s="3" t="n">
+        <v>45978.6721487732</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -3505,8 +3669,8 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="3">
-        <v>45978.67214877315</v>
+      <c r="AG30" s="3" t="n">
+        <v>45978.6721487732</v>
       </c>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
@@ -3520,17 +3684,17 @@
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>49</v>
@@ -3554,7 +3718,9 @@
         <v>53</v>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="O31" s="6" t="s">
         <v>54</v>
       </c>
@@ -3563,8 +3729,8 @@
       <c r="R31" s="7"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="7">
-        <v>45978.67214993056</v>
+      <c r="U31" s="7" t="n">
+        <v>45978.6721499306</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -3577,8 +3743,8 @@
       <c r="AD31" s="8"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="6"/>
-      <c r="AG31" s="7">
-        <v>45978.67214993056</v>
+      <c r="AG31" s="7" t="n">
+        <v>45978.6721499306</v>
       </c>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
@@ -3600,9 +3766,9 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
-    <row r="32" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
@@ -3626,7 +3792,9 @@
         <v>53</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="O32" s="2" t="s">
         <v>54</v>
       </c>
@@ -3635,8 +3803,8 @@
       <c r="R32" s="3"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="3">
-        <v>45978.67215106481</v>
+      <c r="U32" s="3" t="n">
+        <v>45978.6721510648</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -3649,8 +3817,8 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="3">
-        <v>45978.67215106481</v>
+      <c r="AG32" s="3" t="n">
+        <v>45978.6721510648</v>
       </c>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
@@ -3664,17 +3832,17 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AT32" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
     </row>
-    <row r="33" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>49</v>
@@ -3698,7 +3866,9 @@
         <v>53</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="N33" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="O33" s="6" t="s">
         <v>54</v>
       </c>
@@ -3707,8 +3877,8 @@
       <c r="R33" s="7"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="7">
-        <v>45978.67215222222</v>
+      <c r="U33" s="7" t="n">
+        <v>45978.6721522222</v>
       </c>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -3721,8 +3891,8 @@
       <c r="AD33" s="8"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="6"/>
-      <c r="AG33" s="7">
-        <v>45978.67215222222</v>
+      <c r="AG33" s="7" t="n">
+        <v>45978.6721522222</v>
       </c>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
@@ -3739,14 +3909,14 @@
         <v>101</v>
       </c>
       <c r="AT33" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>49</v>
@@ -3770,7 +3940,9 @@
         <v>53</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="O34" s="2" t="s">
         <v>54</v>
       </c>
@@ -3779,8 +3951,8 @@
       <c r="R34" s="3"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="3">
-        <v>45978.67215359954</v>
+      <c r="U34" s="3" t="n">
+        <v>45978.6721535995</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -3793,8 +3965,8 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="3">
-        <v>45978.67215359954</v>
+      <c r="AG34" s="3" t="n">
+        <v>45978.6721535995</v>
       </c>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
@@ -3808,17 +3980,17 @@
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AT34" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AU34" s="2"/>
       <c r="AV34" s="2"/>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>49</v>
@@ -3842,7 +4014,9 @@
         <v>53</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="N35" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="O35" s="6" t="s">
         <v>54</v>
       </c>
@@ -3851,8 +4025,8 @@
       <c r="R35" s="7"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="7">
-        <v>45978.67215471065</v>
+      <c r="U35" s="7" t="n">
+        <v>45978.6721547107</v>
       </c>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -3865,8 +4039,8 @@
       <c r="AD35" s="8"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
-      <c r="AG35" s="7">
-        <v>45978.67215471065</v>
+      <c r="AG35" s="7" t="n">
+        <v>45978.6721547107</v>
       </c>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
@@ -3880,17 +4054,17 @@
       <c r="AQ35" s="6"/>
       <c r="AR35" s="6"/>
       <c r="AS35" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AT35" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
     </row>
-    <row r="36" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
@@ -3914,7 +4088,9 @@
         <v>53</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="O36" s="2" t="s">
         <v>54</v>
       </c>
@@ -3923,8 +4099,8 @@
       <c r="R36" s="3"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="3">
-        <v>45978.67215586806</v>
+      <c r="U36" s="3" t="n">
+        <v>45978.6721558681</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -3937,8 +4113,8 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="3">
-        <v>45978.67215586806</v>
+      <c r="AG36" s="3" t="n">
+        <v>45978.6721558681</v>
       </c>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
@@ -3952,17 +4128,17 @@
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AT36" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
     </row>
-    <row r="37" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>49</v>
@@ -3986,7 +4162,9 @@
         <v>53</v>
       </c>
       <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="N37" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="O37" s="6" t="s">
         <v>54</v>
       </c>
@@ -3995,8 +4173,8 @@
       <c r="R37" s="7"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="7">
-        <v>45978.67215711805</v>
+      <c r="U37" s="7" t="n">
+        <v>45978.6721571181</v>
       </c>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
@@ -4009,8 +4187,8 @@
       <c r="AD37" s="8"/>
       <c r="AE37" s="6"/>
       <c r="AF37" s="6"/>
-      <c r="AG37" s="7">
-        <v>45978.67215711805</v>
+      <c r="AG37" s="7" t="n">
+        <v>45978.6721571181</v>
       </c>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
@@ -4024,17 +4202,17 @@
       <c r="AQ37" s="6"/>
       <c r="AR37" s="6"/>
       <c r="AS37" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AT37" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AU37" s="6"/>
       <c r="AV37" s="6"/>
     </row>
-    <row r="38" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>49</v>
@@ -4058,7 +4236,9 @@
         <v>53</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="O38" s="2" t="s">
         <v>54</v>
       </c>
@@ -4067,8 +4247,8 @@
       <c r="R38" s="3"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="3">
-        <v>45978.67215828704</v>
+      <c r="U38" s="3" t="n">
+        <v>45978.672158287</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -4081,8 +4261,8 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="3">
-        <v>45978.67215828704</v>
+      <c r="AG38" s="3" t="n">
+        <v>45978.672158287</v>
       </c>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
@@ -4096,17 +4276,17 @@
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AT38" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
     </row>
-    <row r="39" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>49</v>
@@ -4130,7 +4310,9 @@
         <v>53</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="N39" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="O39" s="6" t="s">
         <v>54</v>
       </c>
@@ -4139,8 +4321,8 @@
       <c r="R39" s="7"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="7">
-        <v>45978.67215945602</v>
+      <c r="U39" s="7" t="n">
+        <v>45978.672159456</v>
       </c>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -4153,8 +4335,8 @@
       <c r="AD39" s="8"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
-      <c r="AG39" s="7">
-        <v>45978.67215945602</v>
+      <c r="AG39" s="7" t="n">
+        <v>45978.672159456</v>
       </c>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
@@ -4171,14 +4353,14 @@
         <v>90</v>
       </c>
       <c r="AT39" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AU39" s="6"/>
       <c r="AV39" s="6"/>
     </row>
-    <row r="40" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>49</v>
@@ -4202,7 +4384,6 @@
         <v>53</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>54</v>
       </c>
@@ -4211,8 +4392,8 @@
       <c r="R40" s="3"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="3">
-        <v>45978.67216101852</v>
+      <c r="U40" s="3" t="n">
+        <v>45978.6721610185</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -4225,8 +4406,8 @@
       <c r="AD40" s="4"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="3">
-        <v>45978.67216101852</v>
+      <c r="AG40" s="3" t="n">
+        <v>45978.6721610185</v>
       </c>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
@@ -4243,14 +4424,14 @@
         <v>90</v>
       </c>
       <c r="AT40" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
     </row>
-    <row r="41" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>49</v>
@@ -4274,7 +4455,9 @@
         <v>53</v>
       </c>
       <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="N41" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="O41" s="6" t="s">
         <v>54</v>
       </c>
@@ -4283,8 +4466,8 @@
       <c r="R41" s="7"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="7">
-        <v>45978.67216236111</v>
+      <c r="U41" s="7" t="n">
+        <v>45978.6721623611</v>
       </c>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
@@ -4297,8 +4480,8 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
-      <c r="AG41" s="7">
-        <v>45978.67216236111</v>
+      <c r="AG41" s="7" t="n">
+        <v>45978.6721623611</v>
       </c>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
@@ -4320,9 +4503,9 @@
       <c r="AU41" s="6"/>
       <c r="AV41" s="6"/>
     </row>
-    <row r="42" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>49</v>
@@ -4346,7 +4529,9 @@
         <v>53</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="O42" s="2" t="s">
         <v>54</v>
       </c>
@@ -4355,8 +4540,8 @@
       <c r="R42" s="3"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="3">
-        <v>45978.672163599535</v>
+      <c r="U42" s="3" t="n">
+        <v>45978.6721635995</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -4369,8 +4554,8 @@
       <c r="AD42" s="4"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="3">
-        <v>45978.672163599535</v>
+      <c r="AG42" s="3" t="n">
+        <v>45978.6721635995</v>
       </c>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
@@ -4387,14 +4572,14 @@
         <v>90</v>
       </c>
       <c r="AT42" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2"/>
     </row>
-    <row r="43" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>49</v>
@@ -4418,7 +4603,9 @@
         <v>53</v>
       </c>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="N43" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="O43" s="6" t="s">
         <v>54</v>
       </c>
@@ -4427,8 +4614,8 @@
       <c r="R43" s="7"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="7">
-        <v>45978.67216482639</v>
+      <c r="U43" s="7" t="n">
+        <v>45978.6721648264</v>
       </c>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -4441,8 +4628,8 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
-      <c r="AG43" s="7">
-        <v>45978.67216482639</v>
+      <c r="AG43" s="7" t="n">
+        <v>45978.6721648264</v>
       </c>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
@@ -4457,14 +4644,14 @@
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AU43" s="6"/>
       <c r="AV43" s="6"/>
     </row>
-    <row r="44" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>49</v>
@@ -4488,7 +4675,9 @@
         <v>53</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="O44" s="2" t="s">
         <v>54</v>
       </c>
@@ -4497,8 +4686,8 @@
       <c r="R44" s="3"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="3">
-        <v>45978.672166006945</v>
+      <c r="U44" s="3" t="n">
+        <v>45978.6721660069</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -4511,8 +4700,8 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="3">
-        <v>45978.672166006945</v>
+      <c r="AG44" s="3" t="n">
+        <v>45978.6721660069</v>
       </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
@@ -4529,14 +4718,14 @@
         <v>90</v>
       </c>
       <c r="AT44" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
     </row>
-    <row r="45" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>49</v>
@@ -4560,7 +4749,9 @@
         <v>53</v>
       </c>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="N45" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="O45" s="6" t="s">
         <v>54</v>
       </c>
@@ -4569,8 +4760,8 @@
       <c r="R45" s="7"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="7">
-        <v>45978.672167384255</v>
+      <c r="U45" s="7" t="n">
+        <v>45978.6721673843</v>
       </c>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
@@ -4583,8 +4774,8 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
-      <c r="AG45" s="7">
-        <v>45978.672167384255</v>
+      <c r="AG45" s="7" t="n">
+        <v>45978.6721673843</v>
       </c>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
@@ -4601,14 +4792,14 @@
         <v>87</v>
       </c>
       <c r="AT45" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU45" s="6"/>
       <c r="AV45" s="6"/>
     </row>
-    <row r="46" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>49</v>
@@ -4632,7 +4823,9 @@
         <v>53</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="O46" s="2" t="s">
         <v>54</v>
       </c>
@@ -4641,8 +4834,8 @@
       <c r="R46" s="3"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="3">
-        <v>45978.67216880787</v>
+      <c r="U46" s="3" t="n">
+        <v>45978.6721688079</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
@@ -4655,8 +4848,8 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="3">
-        <v>45978.67216880787</v>
+      <c r="AG46" s="3" t="n">
+        <v>45978.6721688079</v>
       </c>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
@@ -4673,14 +4866,14 @@
         <v>90</v>
       </c>
       <c r="AT46" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
     </row>
-    <row r="47" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>49</v>
@@ -4704,7 +4897,9 @@
         <v>53</v>
       </c>
       <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="N47" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="O47" s="6" t="s">
         <v>54</v>
       </c>
@@ -4713,8 +4908,8 @@
       <c r="R47" s="7"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="U47" s="7">
-        <v>45978.67217016204</v>
+      <c r="U47" s="7" t="n">
+        <v>45978.672170162</v>
       </c>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
@@ -4727,8 +4922,8 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
-      <c r="AG47" s="7">
-        <v>45978.67217016204</v>
+      <c r="AG47" s="7" t="n">
+        <v>45978.672170162</v>
       </c>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
@@ -4745,14 +4940,14 @@
         <v>90</v>
       </c>
       <c r="AT47" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU47" s="6"/>
       <c r="AV47" s="6"/>
     </row>
-    <row r="48" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>49</v>
@@ -4776,7 +4971,9 @@
         <v>53</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="O48" s="2" t="s">
         <v>54</v>
       </c>
@@ -4785,8 +4982,8 @@
       <c r="R48" s="3"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="3">
-        <v>45978.672171342594</v>
+      <c r="U48" s="3" t="n">
+        <v>45978.6721713426</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
@@ -4799,8 +4996,8 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="3">
-        <v>45978.672171342594</v>
+      <c r="AG48" s="3" t="n">
+        <v>45978.6721713426</v>
       </c>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
@@ -4817,14 +5014,14 @@
         <v>90</v>
       </c>
       <c r="AT48" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU48" s="2"/>
       <c r="AV48" s="2"/>
     </row>
-    <row r="49" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>49</v>
@@ -4848,7 +5045,9 @@
         <v>53</v>
       </c>
       <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
+      <c r="N49" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="O49" s="6" t="s">
         <v>54</v>
       </c>
@@ -4857,8 +5056,8 @@
       <c r="R49" s="7"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="7">
-        <v>45978.67217261574</v>
+      <c r="U49" s="7" t="n">
+        <v>45978.6721726157</v>
       </c>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -4871,8 +5070,8 @@
       <c r="AD49" s="8"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
-      <c r="AG49" s="7">
-        <v>45978.67217261574</v>
+      <c r="AG49" s="7" t="n">
+        <v>45978.6721726157</v>
       </c>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
@@ -4886,17 +5085,17 @@
       <c r="AQ49" s="6"/>
       <c r="AR49" s="6"/>
       <c r="AS49" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AT49" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU49" s="6"/>
       <c r="AV49" s="6"/>
     </row>
-    <row r="50" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4920,7 +5119,9 @@
         <v>53</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="O50" s="2" t="s">
         <v>54</v>
       </c>
@@ -4929,8 +5130,8 @@
       <c r="R50" s="3"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="3">
-        <v>45978.67217388889</v>
+      <c r="U50" s="3" t="n">
+        <v>45978.6721738889</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
@@ -4943,8 +5144,8 @@
       <c r="AD50" s="4"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AG50" s="3">
-        <v>45978.67217388889</v>
+      <c r="AG50" s="3" t="n">
+        <v>45978.6721738889</v>
       </c>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
@@ -4958,17 +5159,17 @@
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
       <c r="AS50" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AT50" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU50" s="2"/>
       <c r="AV50" s="2"/>
     </row>
-    <row r="51" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>49</v>
@@ -4992,7 +5193,9 @@
         <v>53</v>
       </c>
       <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="N51" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="O51" s="6" t="s">
         <v>54</v>
       </c>
@@ -5001,8 +5204,8 @@
       <c r="R51" s="7"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="7">
-        <v>45978.67217508102</v>
+      <c r="U51" s="7" t="n">
+        <v>45978.672175081</v>
       </c>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
@@ -5015,8 +5218,8 @@
       <c r="AD51" s="8"/>
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
-      <c r="AG51" s="7">
-        <v>45978.67217508102</v>
+      <c r="AG51" s="7" t="n">
+        <v>45978.672175081</v>
       </c>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
@@ -5033,14 +5236,14 @@
         <v>90</v>
       </c>
       <c r="AT51" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU51" s="6"/>
       <c r="AV51" s="6"/>
     </row>
-    <row r="52" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>49</v>
@@ -5064,7 +5267,9 @@
         <v>53</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="O52" s="2" t="s">
         <v>54</v>
       </c>
@@ -5073,8 +5278,8 @@
       <c r="R52" s="3"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="3">
-        <v>45978.672176493055</v>
+      <c r="U52" s="3" t="n">
+        <v>45978.6721764931</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
@@ -5087,8 +5292,8 @@
       <c r="AD52" s="4"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-      <c r="AG52" s="3">
-        <v>45978.672176493055</v>
+      <c r="AG52" s="3" t="n">
+        <v>45978.6721764931</v>
       </c>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
@@ -5105,14 +5310,14 @@
         <v>90</v>
       </c>
       <c r="AT52" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
     </row>
-    <row r="53" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>49</v>
@@ -5136,7 +5341,9 @@
         <v>53</v>
       </c>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="N53" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="O53" s="6" t="s">
         <v>54</v>
       </c>
@@ -5145,8 +5352,8 @@
       <c r="R53" s="7"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-      <c r="U53" s="7">
-        <v>45978.67217774305</v>
+      <c r="U53" s="7" t="n">
+        <v>45978.6721777431</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
@@ -5159,8 +5366,8 @@
       <c r="AD53" s="8"/>
       <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
-      <c r="AG53" s="7">
-        <v>45978.67217774305</v>
+      <c r="AG53" s="7" t="n">
+        <v>45978.6721777431</v>
       </c>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
@@ -5174,17 +5381,17 @@
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="AT53" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU53" s="6"/>
       <c r="AV53" s="6"/>
     </row>
-    <row r="54" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>49</v>
@@ -5208,7 +5415,9 @@
         <v>53</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="O54" s="2" t="s">
         <v>54</v>
       </c>
@@ -5217,8 +5426,8 @@
       <c r="R54" s="3"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="3">
-        <v>45978.67217888889</v>
+      <c r="U54" s="3" t="n">
+        <v>45978.6721788889</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
@@ -5231,8 +5440,8 @@
       <c r="AD54" s="4"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-      <c r="AG54" s="3">
-        <v>45978.67217888889</v>
+      <c r="AG54" s="3" t="n">
+        <v>45978.6721788889</v>
       </c>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
@@ -5249,14 +5458,14 @@
         <v>90</v>
       </c>
       <c r="AT54" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2"/>
     </row>
-    <row r="55" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>49</v>
@@ -5280,7 +5489,9 @@
         <v>53</v>
       </c>
       <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="N55" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="O55" s="6" t="s">
         <v>54</v>
       </c>
@@ -5289,8 +5500,8 @@
       <c r="R55" s="7"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
-      <c r="U55" s="7">
-        <v>45978.672180127316</v>
+      <c r="U55" s="7" t="n">
+        <v>45978.6721801273</v>
       </c>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
@@ -5303,8 +5514,8 @@
       <c r="AD55" s="8"/>
       <c r="AE55" s="6"/>
       <c r="AF55" s="6"/>
-      <c r="AG55" s="7">
-        <v>45978.672180127316</v>
+      <c r="AG55" s="7" t="n">
+        <v>45978.6721801273</v>
       </c>
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
@@ -5321,14 +5532,14 @@
         <v>90</v>
       </c>
       <c r="AT55" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AU55" s="6"/>
       <c r="AV55" s="6"/>
     </row>
-    <row r="56" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>49</v>
@@ -5352,7 +5563,9 @@
         <v>53</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="O56" s="2" t="s">
         <v>54</v>
       </c>
@@ -5361,8 +5574,8 @@
       <c r="R56" s="3"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="3">
-        <v>45978.672181284725</v>
+      <c r="U56" s="3" t="n">
+        <v>45978.6721812847</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
@@ -5375,8 +5588,8 @@
       <c r="AD56" s="4"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="3">
-        <v>45978.672181284725</v>
+      <c r="AG56" s="3" t="n">
+        <v>45978.6721812847</v>
       </c>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
@@ -5393,14 +5606,14 @@
         <v>87</v>
       </c>
       <c r="AT56" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
     </row>
-    <row r="57" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>49</v>
@@ -5424,7 +5637,9 @@
         <v>53</v>
       </c>
       <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
+      <c r="N57" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="O57" s="6" t="s">
         <v>54</v>
       </c>
@@ -5433,8 +5648,8 @@
       <c r="R57" s="7"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="7">
-        <v>45978.67218248843</v>
+      <c r="U57" s="7" t="n">
+        <v>45978.6721824884</v>
       </c>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
@@ -5447,8 +5662,8 @@
       <c r="AD57" s="8"/>
       <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
-      <c r="AG57" s="7">
-        <v>45978.67218248843</v>
+      <c r="AG57" s="7" t="n">
+        <v>45978.6721824884</v>
       </c>
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
@@ -5465,14 +5680,14 @@
         <v>90</v>
       </c>
       <c r="AT57" s="6" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AU57" s="6"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>49</v>
@@ -5496,7 +5711,9 @@
         <v>53</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="O58" s="2" t="s">
         <v>54</v>
       </c>
@@ -5505,8 +5722,8 @@
       <c r="R58" s="3"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="3">
-        <v>45978.67218380787</v>
+      <c r="U58" s="3" t="n">
+        <v>45978.6721838079</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
@@ -5519,8 +5736,8 @@
       <c r="AD58" s="4"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-      <c r="AG58" s="3">
-        <v>45978.67218380787</v>
+      <c r="AG58" s="3" t="n">
+        <v>45978.6721838079</v>
       </c>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
@@ -5534,17 +5751,17 @@
       <c r="AQ58" s="2"/>
       <c r="AR58" s="2"/>
       <c r="AS58" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AT58" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
     </row>
-    <row r="59" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>49</v>
@@ -5568,7 +5785,9 @@
         <v>53</v>
       </c>
       <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
+      <c r="N59" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="O59" s="6" t="s">
         <v>54</v>
       </c>
@@ -5577,8 +5796,8 @@
       <c r="R59" s="7"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-      <c r="U59" s="7">
-        <v>45978.67218517361</v>
+      <c r="U59" s="7" t="n">
+        <v>45978.6721851736</v>
       </c>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
@@ -5591,8 +5810,8 @@
       <c r="AD59" s="8"/>
       <c r="AE59" s="6"/>
       <c r="AF59" s="6"/>
-      <c r="AG59" s="7">
-        <v>45978.67218517361</v>
+      <c r="AG59" s="7" t="n">
+        <v>45978.6721851736</v>
       </c>
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
@@ -5609,14 +5828,14 @@
         <v>90</v>
       </c>
       <c r="AT59" s="6" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AU59" s="6"/>
       <c r="AV59" s="6"/>
     </row>
-    <row r="60" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>49</v>
@@ -5640,7 +5859,9 @@
         <v>53</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="O60" s="2" t="s">
         <v>54</v>
       </c>
@@ -5649,8 +5870,8 @@
       <c r="R60" s="3"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="3">
-        <v>45978.672186435186</v>
+      <c r="U60" s="3" t="n">
+        <v>45978.6721864352</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
@@ -5663,8 +5884,8 @@
       <c r="AD60" s="4"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-      <c r="AG60" s="3">
-        <v>45978.672186435186</v>
+      <c r="AG60" s="3" t="n">
+        <v>45978.6721864352</v>
       </c>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
@@ -5678,17 +5899,17 @@
       <c r="AQ60" s="2"/>
       <c r="AR60" s="2"/>
       <c r="AS60" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AT60" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
     </row>
-    <row r="61" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>49</v>
@@ -5712,7 +5933,9 @@
         <v>53</v>
       </c>
       <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
+      <c r="N61" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="O61" s="6" t="s">
         <v>54</v>
       </c>
@@ -5721,8 +5944,8 @@
       <c r="R61" s="7"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="U61" s="7">
-        <v>45978.67218765046</v>
+      <c r="U61" s="7" t="n">
+        <v>45978.6721876505</v>
       </c>
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
@@ -5735,8 +5958,8 @@
       <c r="AD61" s="8"/>
       <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
-      <c r="AG61" s="7">
-        <v>45978.67218765046</v>
+      <c r="AG61" s="7" t="n">
+        <v>45978.6721876505</v>
       </c>
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
@@ -5753,14 +5976,14 @@
         <v>101</v>
       </c>
       <c r="AT61" s="6" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AU61" s="6"/>
       <c r="AV61" s="6"/>
     </row>
-    <row r="62" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>49</v>
@@ -5784,7 +6007,9 @@
         <v>53</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="O62" s="2" t="s">
         <v>54</v>
       </c>
@@ -5793,8 +6018,8 @@
       <c r="R62" s="3"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="3">
-        <v>45978.672188819444</v>
+      <c r="U62" s="3" t="n">
+        <v>45978.6721888194</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
@@ -5807,8 +6032,8 @@
       <c r="AD62" s="4"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-      <c r="AG62" s="3">
-        <v>45978.672188819444</v>
+      <c r="AG62" s="3" t="n">
+        <v>45978.6721888194</v>
       </c>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
@@ -5822,17 +6047,17 @@
       <c r="AQ62" s="2"/>
       <c r="AR62" s="2"/>
       <c r="AS62" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AT62" s="2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
     </row>
-    <row r="63" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>49</v>
@@ -5856,7 +6081,9 @@
         <v>53</v>
       </c>
       <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
+      <c r="N63" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="O63" s="6" t="s">
         <v>54</v>
       </c>
@@ -5865,8 +6092,8 @@
       <c r="R63" s="7"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
-      <c r="U63" s="7">
-        <v>45978.67219008102</v>
+      <c r="U63" s="7" t="n">
+        <v>45978.672190081</v>
       </c>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
@@ -5879,8 +6106,8 @@
       <c r="AD63" s="8"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
-      <c r="AG63" s="7">
-        <v>45978.67219008102</v>
+      <c r="AG63" s="7" t="n">
+        <v>45978.672190081</v>
       </c>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
@@ -5894,17 +6121,17 @@
       <c r="AQ63" s="6"/>
       <c r="AR63" s="6"/>
       <c r="AS63" s="6" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="AT63" s="6" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="AU63" s="6"/>
       <c r="AV63" s="6"/>
     </row>
-    <row r="64" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>49</v>
@@ -5928,7 +6155,9 @@
         <v>53</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O64" s="2" t="s">
         <v>54</v>
       </c>
@@ -5937,8 +6166,8 @@
       <c r="R64" s="3"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="3">
-        <v>45978.67219143518</v>
+      <c r="U64" s="3" t="n">
+        <v>45978.6721914352</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
@@ -5951,8 +6180,8 @@
       <c r="AD64" s="4"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-      <c r="AG64" s="3">
-        <v>45978.67219143518</v>
+      <c r="AG64" s="3" t="n">
+        <v>45978.6721914352</v>
       </c>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
@@ -5966,17 +6195,17 @@
       <c r="AQ64" s="2"/>
       <c r="AR64" s="2"/>
       <c r="AS64" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AT64" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AU64" s="2"/>
       <c r="AV64" s="2"/>
     </row>
-    <row r="65" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>49</v>
@@ -6000,7 +6229,9 @@
         <v>53</v>
       </c>
       <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
+      <c r="N65" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O65" s="6" t="s">
         <v>54</v>
       </c>
@@ -6009,8 +6240,8 @@
       <c r="R65" s="7"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
-      <c r="U65" s="7">
-        <v>45978.67219269676</v>
+      <c r="U65" s="7" t="n">
+        <v>45978.6721926968</v>
       </c>
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
@@ -6023,8 +6254,8 @@
       <c r="AD65" s="8"/>
       <c r="AE65" s="6"/>
       <c r="AF65" s="6"/>
-      <c r="AG65" s="7">
-        <v>45978.67219269676</v>
+      <c r="AG65" s="7" t="n">
+        <v>45978.6721926968</v>
       </c>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
@@ -6038,17 +6269,17 @@
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6"/>
       <c r="AS65" s="6" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AT65" s="6" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
     </row>
-    <row r="66" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>49</v>
@@ -6072,7 +6303,9 @@
         <v>53</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O66" s="2" t="s">
         <v>54</v>
       </c>
@@ -6081,8 +6314,8 @@
       <c r="R66" s="3"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-      <c r="U66" s="3">
-        <v>45978.67219395834</v>
+      <c r="U66" s="3" t="n">
+        <v>45978.6721939583</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
@@ -6095,8 +6328,8 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="3">
-        <v>45978.67219395834</v>
+      <c r="AG66" s="3" t="n">
+        <v>45978.6721939583</v>
       </c>
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
@@ -6110,17 +6343,17 @@
       <c r="AQ66" s="2"/>
       <c r="AR66" s="2"/>
       <c r="AS66" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AT66" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="AU66" s="2"/>
       <c r="AV66" s="2"/>
     </row>
-    <row r="67" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>49</v>
@@ -6144,7 +6377,6 @@
         <v>53</v>
       </c>
       <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
       <c r="O67" s="6" t="s">
         <v>54</v>
       </c>
@@ -6153,8 +6385,8 @@
       <c r="R67" s="7"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
-      <c r="U67" s="7">
-        <v>45978.67219538194</v>
+      <c r="U67" s="7" t="n">
+        <v>45978.6721953819</v>
       </c>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
@@ -6167,8 +6399,8 @@
       <c r="AD67" s="8"/>
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
-      <c r="AG67" s="7">
-        <v>45978.67219538194</v>
+      <c r="AG67" s="7" t="n">
+        <v>45978.6721953819</v>
       </c>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
@@ -6182,17 +6414,17 @@
       <c r="AQ67" s="6"/>
       <c r="AR67" s="6"/>
       <c r="AS67" s="6" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AT67" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AU67" s="6"/>
       <c r="AV67" s="6"/>
     </row>
-    <row r="68" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>49</v>
@@ -6216,7 +6448,9 @@
         <v>53</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O68" s="2" t="s">
         <v>54</v>
       </c>
@@ -6225,8 +6459,8 @@
       <c r="R68" s="3"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-      <c r="U68" s="3">
-        <v>45978.67219791666</v>
+      <c r="U68" s="3" t="n">
+        <v>45978.6721979167</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
@@ -6239,8 +6473,8 @@
       <c r="AD68" s="4"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
-      <c r="AG68" s="3">
-        <v>45978.67219791666</v>
+      <c r="AG68" s="3" t="n">
+        <v>45978.6721979167</v>
       </c>
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
@@ -6254,17 +6488,17 @@
       <c r="AQ68" s="2"/>
       <c r="AR68" s="2"/>
       <c r="AS68" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AT68" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AU68" s="2"/>
       <c r="AV68" s="2"/>
     </row>
-    <row r="69" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>49</v>
@@ -6288,7 +6522,9 @@
         <v>53</v>
       </c>
       <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
+      <c r="N69" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="O69" s="6" t="s">
         <v>54</v>
       </c>
@@ -6297,8 +6533,8 @@
       <c r="R69" s="7"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
-      <c r="U69" s="7">
-        <v>45978.672199085646</v>
+      <c r="U69" s="7" t="n">
+        <v>45978.6721990856</v>
       </c>
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
@@ -6311,8 +6547,8 @@
       <c r="AD69" s="8"/>
       <c r="AE69" s="6"/>
       <c r="AF69" s="6"/>
-      <c r="AG69" s="7">
-        <v>45978.672199085646</v>
+      <c r="AG69" s="7" t="n">
+        <v>45978.6721990856</v>
       </c>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
@@ -6326,17 +6562,17 @@
       <c r="AQ69" s="6"/>
       <c r="AR69" s="6"/>
       <c r="AS69" s="6" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AT69" s="6" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AU69" s="6"/>
       <c r="AV69" s="6"/>
     </row>
-    <row r="70" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>49</v>
@@ -6360,7 +6596,9 @@
         <v>53</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="O70" s="2" t="s">
         <v>54</v>
       </c>
@@ -6369,8 +6607,8 @@
       <c r="R70" s="3"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-      <c r="U70" s="3">
-        <v>45978.672200381945</v>
+      <c r="U70" s="3" t="n">
+        <v>45978.6722003819</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
@@ -6383,8 +6621,8 @@
       <c r="AD70" s="4"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-      <c r="AG70" s="3">
-        <v>45978.672200381945</v>
+      <c r="AG70" s="3" t="n">
+        <v>45978.6722003819</v>
       </c>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
@@ -6398,17 +6636,17 @@
       <c r="AQ70" s="2"/>
       <c r="AR70" s="2"/>
       <c r="AS70" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="AT70" s="2" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AU70" s="2"/>
       <c r="AV70" s="2"/>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>49</v>
@@ -6432,7 +6670,9 @@
         <v>53</v>
       </c>
       <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
+      <c r="N71" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="O71" s="6" t="s">
         <v>54</v>
       </c>
@@ -6441,8 +6681,8 @@
       <c r="R71" s="7"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
-      <c r="U71" s="7">
-        <v>45978.67220151621</v>
+      <c r="U71" s="7" t="n">
+        <v>45978.6722015162</v>
       </c>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
@@ -6455,8 +6695,8 @@
       <c r="AD71" s="8"/>
       <c r="AE71" s="6"/>
       <c r="AF71" s="6"/>
-      <c r="AG71" s="7">
-        <v>45978.67220151621</v>
+      <c r="AG71" s="7" t="n">
+        <v>45978.6722015162</v>
       </c>
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
@@ -6471,14 +6711,14 @@
       <c r="AR71" s="6"/>
       <c r="AS71" s="6"/>
       <c r="AT71" s="6" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AU71" s="6"/>
       <c r="AV71" s="6"/>
     </row>
-    <row r="72" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>49</v>
@@ -6502,7 +6742,9 @@
         <v>53</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="O72" s="2" t="s">
         <v>54</v>
       </c>
@@ -6511,8 +6753,8 @@
       <c r="R72" s="3"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-      <c r="U72" s="3">
-        <v>45978.67220271991</v>
+      <c r="U72" s="3" t="n">
+        <v>45978.6722027199</v>
       </c>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
@@ -6525,8 +6767,8 @@
       <c r="AD72" s="4"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AG72" s="3">
-        <v>45978.67220271991</v>
+      <c r="AG72" s="3" t="n">
+        <v>45978.6722027199</v>
       </c>
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
@@ -6541,14 +6783,14 @@
       <c r="AR72" s="2"/>
       <c r="AS72" s="2"/>
       <c r="AT72" s="2" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AU72" s="2"/>
       <c r="AV72" s="2"/>
     </row>
-    <row r="73" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>49</v>
@@ -6572,7 +6814,9 @@
         <v>53</v>
       </c>
       <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
+      <c r="N73" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="O73" s="6" t="s">
         <v>54</v>
       </c>
@@ -6581,8 +6825,8 @@
       <c r="R73" s="7"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
-      <c r="U73" s="7">
-        <v>45978.67220392361</v>
+      <c r="U73" s="7" t="n">
+        <v>45978.6722039236</v>
       </c>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
@@ -6595,8 +6839,8 @@
       <c r="AD73" s="8"/>
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
-      <c r="AG73" s="7">
-        <v>45978.67220392361</v>
+      <c r="AG73" s="7" t="n">
+        <v>45978.6722039236</v>
       </c>
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
@@ -6613,14 +6857,14 @@
         <v>87</v>
       </c>
       <c r="AT73" s="6" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="AU73" s="6"/>
       <c r="AV73" s="6"/>
     </row>
-    <row r="74" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>49</v>
@@ -6644,7 +6888,9 @@
         <v>53</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="O74" s="2" t="s">
         <v>54</v>
       </c>
@@ -6653,8 +6899,8 @@
       <c r="R74" s="3"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-      <c r="U74" s="3">
-        <v>45978.672205104165</v>
+      <c r="U74" s="3" t="n">
+        <v>45978.6722051042</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
@@ -6667,8 +6913,8 @@
       <c r="AD74" s="4"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
-      <c r="AG74" s="3">
-        <v>45978.672205104165</v>
+      <c r="AG74" s="3" t="n">
+        <v>45978.6722051042</v>
       </c>
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
@@ -6682,17 +6928,17 @@
       <c r="AQ74" s="2"/>
       <c r="AR74" s="2"/>
       <c r="AS74" s="2" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="AT74" s="2" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="AU74" s="2"/>
       <c r="AV74" s="2"/>
     </row>
-    <row r="75" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>49</v>
@@ -6716,7 +6962,9 @@
         <v>53</v>
       </c>
       <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
+      <c r="N75" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O75" s="6" t="s">
         <v>54</v>
       </c>
@@ -6725,8 +6973,8 @@
       <c r="R75" s="7"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
-      <c r="U75" s="7">
-        <v>45978.67221366898</v>
+      <c r="U75" s="7" t="n">
+        <v>45978.672213669</v>
       </c>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
@@ -6739,8 +6987,8 @@
       <c r="AD75" s="8"/>
       <c r="AE75" s="6"/>
       <c r="AF75" s="6"/>
-      <c r="AG75" s="7">
-        <v>45978.67221366898</v>
+      <c r="AG75" s="7" t="n">
+        <v>45978.672213669</v>
       </c>
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
@@ -6757,14 +7005,14 @@
         <v>90</v>
       </c>
       <c r="AT75" s="6" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="AU75" s="6"/>
       <c r="AV75" s="6"/>
     </row>
-    <row r="76" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>49</v>
@@ -6788,7 +7036,9 @@
         <v>53</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O76" s="2" t="s">
         <v>54</v>
       </c>
@@ -6797,8 +7047,8 @@
       <c r="R76" s="3"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-      <c r="U76" s="3">
-        <v>45978.67221990741</v>
+      <c r="U76" s="3" t="n">
+        <v>45978.6722199074</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
@@ -6811,8 +7061,8 @@
       <c r="AD76" s="4"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
-      <c r="AG76" s="3">
-        <v>45978.67221990741</v>
+      <c r="AG76" s="3" t="n">
+        <v>45978.6722199074</v>
       </c>
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
@@ -6827,14 +7077,14 @@
       <c r="AR76" s="2"/>
       <c r="AS76" s="2"/>
       <c r="AT76" s="2" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="AU76" s="2"/>
       <c r="AV76" s="2"/>
     </row>
-    <row r="77" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>49</v>
@@ -6858,7 +7108,9 @@
         <v>53</v>
       </c>
       <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
+      <c r="N77" s="9" t="s">
+        <v>242</v>
+      </c>
       <c r="O77" s="6" t="s">
         <v>54</v>
       </c>
@@ -6867,7 +7119,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
-      <c r="U77" s="7">
+      <c r="U77" s="7" t="n">
         <v>45978.6722265625</v>
       </c>
       <c r="V77" s="6"/>
@@ -6881,7 +7133,7 @@
       <c r="AD77" s="8"/>
       <c r="AE77" s="6"/>
       <c r="AF77" s="6"/>
-      <c r="AG77" s="7">
+      <c r="AG77" s="7" t="n">
         <v>45978.6722265625</v>
       </c>
       <c r="AH77" s="6"/>
@@ -6897,14 +7149,14 @@
       <c r="AR77" s="6"/>
       <c r="AS77" s="6"/>
       <c r="AT77" s="6" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="AU77" s="6"/>
       <c r="AV77" s="6"/>
     </row>
-    <row r="78" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>49</v>
@@ -6928,7 +7180,9 @@
         <v>53</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O78" s="2" t="s">
         <v>54</v>
       </c>
@@ -6937,8 +7191,8 @@
       <c r="R78" s="3"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="U78" s="3">
-        <v>45978.672232916666</v>
+      <c r="U78" s="3" t="n">
+        <v>45978.6722329167</v>
       </c>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
@@ -6951,8 +7205,8 @@
       <c r="AD78" s="4"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-      <c r="AG78" s="3">
-        <v>45978.672232916666</v>
+      <c r="AG78" s="3" t="n">
+        <v>45978.6722329167</v>
       </c>
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
@@ -6967,14 +7221,14 @@
       <c r="AR78" s="2"/>
       <c r="AS78" s="2"/>
       <c r="AT78" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AU78" s="2"/>
       <c r="AV78" s="2"/>
     </row>
-    <row r="79" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>49</v>
@@ -6998,7 +7252,9 @@
         <v>53</v>
       </c>
       <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
+      <c r="N79" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O79" s="6" t="s">
         <v>54</v>
       </c>
@@ -7007,8 +7263,8 @@
       <c r="R79" s="7"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
-      <c r="U79" s="7">
-        <v>45978.672238969906</v>
+      <c r="U79" s="7" t="n">
+        <v>45978.6722389699</v>
       </c>
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
@@ -7021,8 +7277,8 @@
       <c r="AD79" s="8"/>
       <c r="AE79" s="6"/>
       <c r="AF79" s="6"/>
-      <c r="AG79" s="7">
-        <v>45978.672238969906</v>
+      <c r="AG79" s="7" t="n">
+        <v>45978.6722389699</v>
       </c>
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
@@ -7037,14 +7293,14 @@
       <c r="AR79" s="6"/>
       <c r="AS79" s="6"/>
       <c r="AT79" s="6" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="AU79" s="6"/>
       <c r="AV79" s="6"/>
     </row>
-    <row r="80" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>49</v>
@@ -7068,7 +7324,9 @@
         <v>53</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="O80" s="2" t="s">
         <v>54</v>
       </c>
@@ -7077,8 +7335,8 @@
       <c r="R80" s="3"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-      <c r="U80" s="3">
-        <v>45978.672245231486</v>
+      <c r="U80" s="3" t="n">
+        <v>45978.6722452315</v>
       </c>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
@@ -7091,8 +7349,8 @@
       <c r="AD80" s="4"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
-      <c r="AG80" s="3">
-        <v>45978.672245231486</v>
+      <c r="AG80" s="3" t="n">
+        <v>45978.6722452315</v>
       </c>
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
@@ -7107,14 +7365,14 @@
       <c r="AR80" s="2"/>
       <c r="AS80" s="2"/>
       <c r="AT80" s="2" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="AU80" s="2"/>
       <c r="AV80" s="2"/>
     </row>
-    <row r="81" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>49</v>
@@ -7138,7 +7396,9 @@
         <v>53</v>
       </c>
       <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
+      <c r="N81" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O81" s="6" t="s">
         <v>54</v>
       </c>
@@ -7147,8 +7407,8 @@
       <c r="R81" s="7"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-      <c r="U81" s="7">
-        <v>45978.67220631945</v>
+      <c r="U81" s="7" t="n">
+        <v>45978.6722063195</v>
       </c>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
@@ -7161,8 +7421,8 @@
       <c r="AD81" s="8"/>
       <c r="AE81" s="6"/>
       <c r="AF81" s="6"/>
-      <c r="AG81" s="7">
-        <v>45978.67220631945</v>
+      <c r="AG81" s="7" t="n">
+        <v>45978.6722063195</v>
       </c>
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
@@ -7176,17 +7436,17 @@
       <c r="AQ81" s="6"/>
       <c r="AR81" s="6"/>
       <c r="AS81" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AT81" s="6" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="AU81" s="6"/>
       <c r="AV81" s="6"/>
     </row>
-    <row r="82" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>49</v>
@@ -7210,7 +7470,9 @@
         <v>53</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="O82" s="2" t="s">
         <v>54</v>
       </c>
@@ -7219,8 +7481,8 @@
       <c r="R82" s="3"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-      <c r="U82" s="3">
-        <v>45978.672214861115</v>
+      <c r="U82" s="3" t="n">
+        <v>45978.6722148611</v>
       </c>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
@@ -7233,8 +7495,8 @@
       <c r="AD82" s="4"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
-      <c r="AG82" s="3">
-        <v>45978.672214861115</v>
+      <c r="AG82" s="3" t="n">
+        <v>45978.6722148611</v>
       </c>
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
@@ -7251,14 +7513,14 @@
         <v>90</v>
       </c>
       <c r="AT82" s="2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="AU82" s="2"/>
       <c r="AV82" s="2"/>
     </row>
-    <row r="83" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>49</v>
@@ -7282,7 +7544,9 @@
         <v>53</v>
       </c>
       <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
+      <c r="N83" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="O83" s="6" t="s">
         <v>54</v>
       </c>
@@ -7291,8 +7555,8 @@
       <c r="R83" s="7"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
-      <c r="U83" s="7">
-        <v>45978.67222113426</v>
+      <c r="U83" s="7" t="n">
+        <v>45978.6722211343</v>
       </c>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
@@ -7305,8 +7569,8 @@
       <c r="AD83" s="8"/>
       <c r="AE83" s="6"/>
       <c r="AF83" s="6"/>
-      <c r="AG83" s="7">
-        <v>45978.67222113426</v>
+      <c r="AG83" s="7" t="n">
+        <v>45978.6722211343</v>
       </c>
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
@@ -7321,14 +7585,14 @@
       <c r="AR83" s="6"/>
       <c r="AS83" s="6"/>
       <c r="AT83" s="6" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="AU83" s="6"/>
       <c r="AV83" s="6"/>
     </row>
-    <row r="84" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>49</v>
@@ -7352,7 +7616,9 @@
         <v>53</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="O84" s="2" t="s">
         <v>54</v>
       </c>
@@ -7361,8 +7627,8 @@
       <c r="R84" s="3"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-      <c r="U84" s="3">
-        <v>45978.672227800926</v>
+      <c r="U84" s="3" t="n">
+        <v>45978.6722278009</v>
       </c>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
@@ -7375,8 +7641,8 @@
       <c r="AD84" s="4"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-      <c r="AG84" s="3">
-        <v>45978.672227800926</v>
+      <c r="AG84" s="3" t="n">
+        <v>45978.6722278009</v>
       </c>
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
@@ -7391,14 +7657,14 @@
       <c r="AR84" s="2"/>
       <c r="AS84" s="2"/>
       <c r="AT84" s="2" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="AU84" s="2"/>
       <c r="AV84" s="2"/>
     </row>
-    <row r="85" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>49</v>
@@ -7422,7 +7688,9 @@
         <v>53</v>
       </c>
       <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
+      <c r="N85" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="O85" s="6" t="s">
         <v>54</v>
       </c>
@@ -7431,8 +7699,8 @@
       <c r="R85" s="7"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
-      <c r="U85" s="7">
-        <v>45978.67223413194</v>
+      <c r="U85" s="7" t="n">
+        <v>45978.6722341319</v>
       </c>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
@@ -7445,8 +7713,8 @@
       <c r="AD85" s="8"/>
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
-      <c r="AG85" s="7">
-        <v>45978.67223413194</v>
+      <c r="AG85" s="7" t="n">
+        <v>45978.6722341319</v>
       </c>
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
@@ -7461,14 +7729,14 @@
       <c r="AR85" s="6"/>
       <c r="AS85" s="6"/>
       <c r="AT85" s="6" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="AU85" s="6"/>
       <c r="AV85" s="6"/>
     </row>
-    <row r="86" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>49</v>
@@ -7492,7 +7760,9 @@
         <v>53</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="O86" s="2" t="s">
         <v>54</v>
       </c>
@@ -7501,7 +7771,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-      <c r="U86" s="3">
+      <c r="U86" s="3" t="n">
         <v>45978.6722403125</v>
       </c>
       <c r="V86" s="2"/>
@@ -7515,7 +7785,7 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="3">
+      <c r="AG86" s="3" t="n">
         <v>45978.6722403125</v>
       </c>
       <c r="AH86" s="2"/>
@@ -7531,14 +7801,14 @@
       <c r="AR86" s="2"/>
       <c r="AS86" s="2"/>
       <c r="AT86" s="2" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="AU86" s="2"/>
       <c r="AV86" s="2"/>
     </row>
-    <row r="87" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>49</v>
@@ -7562,7 +7832,9 @@
         <v>53</v>
       </c>
       <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
+      <c r="N87" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="O87" s="6" t="s">
         <v>54</v>
       </c>
@@ -7571,8 +7843,8 @@
       <c r="R87" s="7"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
-      <c r="U87" s="7">
-        <v>45978.67224641204</v>
+      <c r="U87" s="7" t="n">
+        <v>45978.672246412</v>
       </c>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
@@ -7585,8 +7857,8 @@
       <c r="AD87" s="8"/>
       <c r="AE87" s="6"/>
       <c r="AF87" s="6"/>
-      <c r="AG87" s="7">
-        <v>45978.67224641204</v>
+      <c r="AG87" s="7" t="n">
+        <v>45978.672246412</v>
       </c>
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
@@ -7601,14 +7873,14 @@
       <c r="AR87" s="6"/>
       <c r="AS87" s="6"/>
       <c r="AT87" s="6" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="AU87" s="6"/>
       <c r="AV87" s="6"/>
     </row>
-    <row r="88" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>49</v>
@@ -7632,7 +7904,9 @@
         <v>53</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="O88" s="2" t="s">
         <v>54</v>
       </c>
@@ -7641,8 +7915,8 @@
       <c r="R88" s="3"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
-      <c r="U88" s="3">
-        <v>45978.67220759259</v>
+      <c r="U88" s="3" t="n">
+        <v>45978.6722075926</v>
       </c>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
@@ -7655,8 +7929,8 @@
       <c r="AD88" s="4"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-      <c r="AG88" s="3">
-        <v>45978.67220759259</v>
+      <c r="AG88" s="3" t="n">
+        <v>45978.6722075926</v>
       </c>
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
@@ -7673,14 +7947,14 @@
         <v>90</v>
       </c>
       <c r="AT88" s="2" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="AU88" s="2"/>
       <c r="AV88" s="2"/>
     </row>
-    <row r="89" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>49</v>
@@ -7704,7 +7978,9 @@
         <v>53</v>
       </c>
       <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
+      <c r="N89" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="O89" s="6" t="s">
         <v>54</v>
       </c>
@@ -7713,8 +7989,8 @@
       <c r="R89" s="7"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
-      <c r="U89" s="7">
-        <v>45978.672216122686</v>
+      <c r="U89" s="7" t="n">
+        <v>45978.6722161227</v>
       </c>
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
@@ -7727,8 +8003,8 @@
       <c r="AD89" s="8"/>
       <c r="AE89" s="6"/>
       <c r="AF89" s="6"/>
-      <c r="AG89" s="7">
-        <v>45978.672216122686</v>
+      <c r="AG89" s="7" t="n">
+        <v>45978.6722161227</v>
       </c>
       <c r="AH89" s="6"/>
       <c r="AI89" s="6"/>
@@ -7743,14 +8019,14 @@
       <c r="AR89" s="6"/>
       <c r="AS89" s="6"/>
       <c r="AT89" s="6" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="AU89" s="6"/>
       <c r="AV89" s="6"/>
     </row>
-    <row r="90" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>49</v>
@@ -7774,7 +8050,9 @@
         <v>53</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="O90" s="2" t="s">
         <v>54</v>
       </c>
@@ -7783,8 +8061,8 @@
       <c r="R90" s="3"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
-      <c r="U90" s="3">
-        <v>45978.672222407404</v>
+      <c r="U90" s="3" t="n">
+        <v>45978.6722224074</v>
       </c>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
@@ -7797,8 +8075,8 @@
       <c r="AD90" s="4"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
-      <c r="AG90" s="3">
-        <v>45978.672222407404</v>
+      <c r="AG90" s="3" t="n">
+        <v>45978.6722224074</v>
       </c>
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
@@ -7813,14 +8091,14 @@
       <c r="AR90" s="2"/>
       <c r="AS90" s="2"/>
       <c r="AT90" s="2" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="AU90" s="2"/>
       <c r="AV90" s="2"/>
     </row>
-    <row r="91" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>49</v>
@@ -7844,7 +8122,9 @@
         <v>53</v>
       </c>
       <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="N91" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="O91" s="6" t="s">
         <v>54</v>
       </c>
@@ -7853,8 +8133,8 @@
       <c r="R91" s="7"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
-      <c r="U91" s="7">
-        <v>45978.672229062504</v>
+      <c r="U91" s="7" t="n">
+        <v>45978.6722290625</v>
       </c>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
@@ -7867,8 +8147,8 @@
       <c r="AD91" s="8"/>
       <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
-      <c r="AG91" s="7">
-        <v>45978.672229062504</v>
+      <c r="AG91" s="7" t="n">
+        <v>45978.6722290625</v>
       </c>
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
@@ -7883,14 +8163,14 @@
       <c r="AR91" s="6"/>
       <c r="AS91" s="6"/>
       <c r="AT91" s="6" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="AU91" s="6"/>
       <c r="AV91" s="6"/>
     </row>
-    <row r="92" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>49</v>
@@ -7914,7 +8194,9 @@
         <v>53</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="O92" s="2" t="s">
         <v>54</v>
       </c>
@@ -7923,8 +8205,8 @@
       <c r="R92" s="3"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
-      <c r="U92" s="3">
-        <v>45978.67223553241</v>
+      <c r="U92" s="3" t="n">
+        <v>45978.6722355324</v>
       </c>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
@@ -7937,8 +8219,8 @@
       <c r="AD92" s="4"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-      <c r="AG92" s="3">
-        <v>45978.67223553241</v>
+      <c r="AG92" s="3" t="n">
+        <v>45978.6722355324</v>
       </c>
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
@@ -7953,14 +8235,14 @@
       <c r="AR92" s="2"/>
       <c r="AS92" s="2"/>
       <c r="AT92" s="2" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="AU92" s="2"/>
       <c r="AV92" s="2"/>
     </row>
-    <row r="93" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>49</v>
@@ -7984,7 +8266,9 @@
         <v>53</v>
       </c>
       <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
+      <c r="N93" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="O93" s="6" t="s">
         <v>54</v>
       </c>
@@ -7993,8 +8277,8 @@
       <c r="R93" s="7"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
-      <c r="U93" s="7">
-        <v>45978.67224151621</v>
+      <c r="U93" s="7" t="n">
+        <v>45978.6722415162</v>
       </c>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
@@ -8007,8 +8291,8 @@
       <c r="AD93" s="8"/>
       <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
-      <c r="AG93" s="7">
-        <v>45978.67224151621</v>
+      <c r="AG93" s="7" t="n">
+        <v>45978.6722415162</v>
       </c>
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
@@ -8023,14 +8307,14 @@
       <c r="AR93" s="6"/>
       <c r="AS93" s="6"/>
       <c r="AT93" s="6" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AU93" s="6"/>
       <c r="AV93" s="6"/>
     </row>
-    <row r="94" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="94" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>49</v>
@@ -8054,7 +8338,9 @@
         <v>53</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="O94" s="2" t="s">
         <v>54</v>
       </c>
@@ -8063,8 +8349,8 @@
       <c r="R94" s="3"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
-      <c r="U94" s="3">
-        <v>45978.67224784722</v>
+      <c r="U94" s="3" t="n">
+        <v>45978.6722478472</v>
       </c>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
@@ -8077,8 +8363,8 @@
       <c r="AD94" s="4"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
-      <c r="AG94" s="3">
-        <v>45978.67224784722</v>
+      <c r="AG94" s="3" t="n">
+        <v>45978.6722478472</v>
       </c>
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
@@ -8093,14 +8379,14 @@
       <c r="AR94" s="2"/>
       <c r="AS94" s="2"/>
       <c r="AT94" s="2" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="AU94" s="2"/>
       <c r="AV94" s="2"/>
     </row>
-    <row r="95" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>49</v>
@@ -8124,7 +8410,6 @@
         <v>53</v>
       </c>
       <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
       <c r="O95" s="6" t="s">
         <v>54</v>
       </c>
@@ -8133,8 +8418,8 @@
       <c r="R95" s="7"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
-      <c r="U95" s="7">
-        <v>45978.67221127315</v>
+      <c r="U95" s="7" t="n">
+        <v>45978.6722112732</v>
       </c>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
@@ -8147,8 +8432,8 @@
       <c r="AD95" s="8"/>
       <c r="AE95" s="6"/>
       <c r="AF95" s="6"/>
-      <c r="AG95" s="7">
-        <v>45978.67221127315</v>
+      <c r="AG95" s="7" t="n">
+        <v>45978.6722112732</v>
       </c>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
@@ -8165,14 +8450,14 @@
         <v>90</v>
       </c>
       <c r="AT95" s="6" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="AU95" s="6"/>
       <c r="AV95" s="6"/>
     </row>
-    <row r="96" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>49</v>
@@ -8196,7 +8481,6 @@
         <v>53</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
       <c r="O96" s="2" t="s">
         <v>54</v>
       </c>
@@ -8205,8 +8489,8 @@
       <c r="R96" s="3"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
-      <c r="U96" s="3">
-        <v>45978.672217534724</v>
+      <c r="U96" s="3" t="n">
+        <v>45978.6722175347</v>
       </c>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
@@ -8219,8 +8503,8 @@
       <c r="AD96" s="4"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
-      <c r="AG96" s="3">
-        <v>45978.672217534724</v>
+      <c r="AG96" s="3" t="n">
+        <v>45978.6722175347</v>
       </c>
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
@@ -8235,14 +8519,14 @@
       <c r="AR96" s="2"/>
       <c r="AS96" s="2"/>
       <c r="AT96" s="2" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AU96" s="2"/>
       <c r="AV96" s="2"/>
     </row>
-    <row r="97" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>49</v>
@@ -8266,7 +8550,9 @@
         <v>53</v>
       </c>
       <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
+      <c r="N97" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="O97" s="6" t="s">
         <v>54</v>
       </c>
@@ -8275,8 +8561,8 @@
       <c r="R97" s="7"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
-      <c r="U97" s="7">
-        <v>45978.672223738424</v>
+      <c r="U97" s="7" t="n">
+        <v>45978.6722237384</v>
       </c>
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
@@ -8289,8 +8575,8 @@
       <c r="AD97" s="8"/>
       <c r="AE97" s="6"/>
       <c r="AF97" s="6"/>
-      <c r="AG97" s="7">
-        <v>45978.672223738424</v>
+      <c r="AG97" s="7" t="n">
+        <v>45978.6722237384</v>
       </c>
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
@@ -8305,14 +8591,14 @@
       <c r="AR97" s="6"/>
       <c r="AS97" s="6"/>
       <c r="AT97" s="6" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="AU97" s="6"/>
       <c r="AV97" s="6"/>
     </row>
-    <row r="98" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>49</v>
@@ -8336,7 +8622,9 @@
         <v>53</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="O98" s="2" t="s">
         <v>54</v>
       </c>
@@ -8345,8 +8633,8 @@
       <c r="R98" s="3"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
-      <c r="U98" s="3">
-        <v>45978.672230254626</v>
+      <c r="U98" s="3" t="n">
+        <v>45978.6722302546</v>
       </c>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
@@ -8359,8 +8647,8 @@
       <c r="AD98" s="4"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
-      <c r="AG98" s="3">
-        <v>45978.672230254626</v>
+      <c r="AG98" s="3" t="n">
+        <v>45978.6722302546</v>
       </c>
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
@@ -8375,14 +8663,14 @@
       <c r="AR98" s="2"/>
       <c r="AS98" s="2"/>
       <c r="AT98" s="2" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="AU98" s="2"/>
       <c r="AV98" s="2"/>
     </row>
-    <row r="99" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>49</v>
@@ -8406,7 +8694,9 @@
         <v>53</v>
       </c>
       <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
+      <c r="N99" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="O99" s="6" t="s">
         <v>54</v>
       </c>
@@ -8415,8 +8705,8 @@
       <c r="R99" s="7"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
-      <c r="U99" s="7">
-        <v>45978.67223668982</v>
+      <c r="U99" s="7" t="n">
+        <v>45978.6722366898</v>
       </c>
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
@@ -8429,8 +8719,8 @@
       <c r="AD99" s="8"/>
       <c r="AE99" s="6"/>
       <c r="AF99" s="6"/>
-      <c r="AG99" s="7">
-        <v>45978.67223668982</v>
+      <c r="AG99" s="7" t="n">
+        <v>45978.6722366898</v>
       </c>
       <c r="AH99" s="6"/>
       <c r="AI99" s="6"/>
@@ -8445,14 +8735,14 @@
       <c r="AR99" s="6"/>
       <c r="AS99" s="6"/>
       <c r="AT99" s="6" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="AU99" s="6"/>
       <c r="AV99" s="6"/>
     </row>
-    <row r="100" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>49</v>
@@ -8476,7 +8766,9 @@
         <v>53</v>
       </c>
       <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="N100" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="O100" s="2" t="s">
         <v>54</v>
       </c>
@@ -8485,7 +8777,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="n">
         <v>45978.6722427662</v>
       </c>
       <c r="V100" s="2"/>
@@ -8499,7 +8791,7 @@
       <c r="AD100" s="4"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-      <c r="AG100" s="3">
+      <c r="AG100" s="3" t="n">
         <v>45978.6722427662</v>
       </c>
       <c r="AH100" s="2"/>
@@ -8515,14 +8807,14 @@
       <c r="AR100" s="2"/>
       <c r="AS100" s="2"/>
       <c r="AT100" s="2" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="AU100" s="2"/>
       <c r="AV100" s="2"/>
     </row>
-    <row r="101" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="101" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>49</v>
@@ -8546,7 +8838,9 @@
         <v>53</v>
       </c>
       <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
+      <c r="N101" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="O101" s="6" t="s">
         <v>54</v>
       </c>
@@ -8555,8 +8849,8 @@
       <c r="R101" s="7"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
-      <c r="U101" s="7">
-        <v>45978.67224908565</v>
+      <c r="U101" s="7" t="n">
+        <v>45978.6722490857</v>
       </c>
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
@@ -8569,8 +8863,8 @@
       <c r="AD101" s="8"/>
       <c r="AE101" s="6"/>
       <c r="AF101" s="6"/>
-      <c r="AG101" s="7">
-        <v>45978.67224908565</v>
+      <c r="AG101" s="7" t="n">
+        <v>45978.6722490857</v>
       </c>
       <c r="AH101" s="6"/>
       <c r="AI101" s="6"/>
@@ -8585,14 +8879,14 @@
       <c r="AR101" s="6"/>
       <c r="AS101" s="6"/>
       <c r="AT101" s="6" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="AU101" s="6"/>
       <c r="AV101" s="6"/>
     </row>
-    <row r="102" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>49</v>
@@ -8616,7 +8910,9 @@
         <v>53</v>
       </c>
       <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="N102" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="O102" s="2" t="s">
         <v>54</v>
       </c>
@@ -8625,8 +8921,8 @@
       <c r="R102" s="3"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
-      <c r="U102" s="3">
-        <v>45978.672212488425</v>
+      <c r="U102" s="3" t="n">
+        <v>45978.6722124884</v>
       </c>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
@@ -8639,8 +8935,8 @@
       <c r="AD102" s="4"/>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
-      <c r="AG102" s="3">
-        <v>45978.672212488425</v>
+      <c r="AG102" s="3" t="n">
+        <v>45978.6722124884</v>
       </c>
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
@@ -8654,17 +8950,17 @@
       <c r="AQ102" s="2"/>
       <c r="AR102" s="2"/>
       <c r="AS102" s="2" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="AT102" s="2" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AU102" s="2"/>
       <c r="AV102" s="2"/>
     </row>
-    <row r="103" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>49</v>
@@ -8688,7 +8984,9 @@
         <v>53</v>
       </c>
       <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
+      <c r="N103" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O103" s="6" t="s">
         <v>54</v>
       </c>
@@ -8697,7 +8995,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
-      <c r="U103" s="7">
+      <c r="U103" s="7" t="n">
         <v>45978.67221875</v>
       </c>
       <c r="V103" s="6"/>
@@ -8711,7 +9009,7 @@
       <c r="AD103" s="8"/>
       <c r="AE103" s="6"/>
       <c r="AF103" s="6"/>
-      <c r="AG103" s="7">
+      <c r="AG103" s="7" t="n">
         <v>45978.67221875</v>
       </c>
       <c r="AH103" s="6"/>
@@ -8726,17 +9024,17 @@
       <c r="AQ103" s="6"/>
       <c r="AR103" s="6"/>
       <c r="AS103" s="6" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AT103" s="6" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="AU103" s="6"/>
       <c r="AV103" s="6"/>
     </row>
-    <row r="104" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>49</v>
@@ -8760,7 +9058,9 @@
         <v>53</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="O104" s="2" t="s">
         <v>54</v>
       </c>
@@ -8769,8 +9069,8 @@
       <c r="R104" s="3"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
-      <c r="U104" s="3">
-        <v>45978.67222515046</v>
+      <c r="U104" s="3" t="n">
+        <v>45978.6722251505</v>
       </c>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
@@ -8783,8 +9083,8 @@
       <c r="AD104" s="4"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="3">
-        <v>45978.67222515046</v>
+      <c r="AG104" s="3" t="n">
+        <v>45978.6722251505</v>
       </c>
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
@@ -8799,14 +9099,14 @@
       <c r="AR104" s="2"/>
       <c r="AS104" s="2"/>
       <c r="AT104" s="2" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="AU104" s="2"/>
       <c r="AV104" s="2"/>
     </row>
-    <row r="105" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="105" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>49</v>
@@ -8830,7 +9130,6 @@
         <v>53</v>
       </c>
       <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
       <c r="O105" s="6" t="s">
         <v>54</v>
       </c>
@@ -8839,8 +9138,8 @@
       <c r="R105" s="7"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
-      <c r="U105" s="7">
-        <v>45978.672231539356</v>
+      <c r="U105" s="7" t="n">
+        <v>45978.6722315394</v>
       </c>
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
@@ -8853,8 +9152,8 @@
       <c r="AD105" s="8"/>
       <c r="AE105" s="6"/>
       <c r="AF105" s="6"/>
-      <c r="AG105" s="7">
-        <v>45978.672231539356</v>
+      <c r="AG105" s="7" t="n">
+        <v>45978.6722315394</v>
       </c>
       <c r="AH105" s="6"/>
       <c r="AI105" s="6"/>
@@ -8869,14 +9168,14 @@
       <c r="AR105" s="6"/>
       <c r="AS105" s="6"/>
       <c r="AT105" s="6" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AU105" s="6"/>
       <c r="AV105" s="6"/>
     </row>
-    <row r="106" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="106" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>49</v>
@@ -8900,7 +9199,6 @@
         <v>53</v>
       </c>
       <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
       <c r="O106" s="2" t="s">
         <v>54</v>
       </c>
@@ -8909,8 +9207,8 @@
       <c r="R106" s="3"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
-      <c r="U106" s="3">
-        <v>45978.67223783565</v>
+      <c r="U106" s="3" t="n">
+        <v>45978.6722378357</v>
       </c>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
@@ -8923,8 +9221,8 @@
       <c r="AD106" s="4"/>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
-      <c r="AG106" s="3">
-        <v>45978.67223783565</v>
+      <c r="AG106" s="3" t="n">
+        <v>45978.6722378357</v>
       </c>
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
@@ -8939,14 +9237,14 @@
       <c r="AR106" s="2"/>
       <c r="AS106" s="2"/>
       <c r="AT106" s="2" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="AU106" s="2"/>
       <c r="AV106" s="2"/>
     </row>
-    <row r="107" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>49</v>
@@ -8970,7 +9268,9 @@
         <v>53</v>
       </c>
       <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
+      <c r="N107" s="9" t="s">
+        <v>313</v>
+      </c>
       <c r="O107" s="6" t="s">
         <v>54</v>
       </c>
@@ -8979,7 +9279,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
-      <c r="U107" s="7">
+      <c r="U107" s="7" t="n">
         <v>45978.6722440625</v>
       </c>
       <c r="V107" s="6"/>
@@ -8993,7 +9293,7 @@
       <c r="AD107" s="8"/>
       <c r="AE107" s="6"/>
       <c r="AF107" s="6"/>
-      <c r="AG107" s="7">
+      <c r="AG107" s="7" t="n">
         <v>45978.6722440625</v>
       </c>
       <c r="AH107" s="6"/>
@@ -9009,83 +9309,90 @@
       <c r="AR107" s="6"/>
       <c r="AS107" s="6"/>
       <c r="AT107" s="6" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="AU107" s="6"/>
       <c r="AV107" s="6"/>
     </row>
-    <row r="108" ht="20" customHeight="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L108" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="10"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="11">
+    <row r="108" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M108" s="11"/>
+      <c r="N108" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="O108" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="12" t="n">
         <v>45978.6722502662</v>
       </c>
-      <c r="V108" s="10"/>
-      <c r="W108" s="10"/>
-      <c r="X108" s="10"/>
-      <c r="Y108" s="10"/>
-      <c r="Z108" s="10"/>
-      <c r="AA108" s="10"/>
-      <c r="AB108" s="10"/>
-      <c r="AC108" s="10"/>
-      <c r="AD108" s="12"/>
-      <c r="AE108" s="10"/>
-      <c r="AF108" s="10"/>
-      <c r="AG108" s="11">
+      <c r="V108" s="11"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="11"/>
+      <c r="AA108" s="11"/>
+      <c r="AB108" s="11"/>
+      <c r="AC108" s="11"/>
+      <c r="AD108" s="13"/>
+      <c r="AE108" s="11"/>
+      <c r="AF108" s="11"/>
+      <c r="AG108" s="12" t="n">
         <v>45978.6722502662</v>
       </c>
-      <c r="AH108" s="10"/>
-      <c r="AI108" s="10"/>
-      <c r="AJ108" s="10"/>
-      <c r="AK108" s="10"/>
-      <c r="AL108" s="10"/>
-      <c r="AM108" s="10"/>
-      <c r="AN108" s="10"/>
-      <c r="AO108" s="10"/>
-      <c r="AP108" s="10"/>
-      <c r="AQ108" s="10"/>
-      <c r="AR108" s="10"/>
-      <c r="AS108" s="10"/>
-      <c r="AT108" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU108" s="10"/>
-      <c r="AV108" s="10"/>
+      <c r="AH108" s="11"/>
+      <c r="AI108" s="11"/>
+      <c r="AJ108" s="11"/>
+      <c r="AK108" s="11"/>
+      <c r="AL108" s="11"/>
+      <c r="AM108" s="11"/>
+      <c r="AN108" s="11"/>
+      <c r="AO108" s="11"/>
+      <c r="AP108" s="11"/>
+      <c r="AQ108" s="11"/>
+      <c r="AR108" s="11"/>
+      <c r="AS108" s="11"/>
+      <c r="AT108" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU108" s="11"/>
+      <c r="AV108" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>